--- a/result_ecYeast/Data_Allchemicals.xlsx
+++ b/result_ecYeast/Data_Allchemicals.xlsx
@@ -12,10 +12,11 @@
     <sheet name="Suc_Rxn" sheetId="12" r:id="rId3"/>
     <sheet name="Other products_Rxn" sheetId="2" r:id="rId4"/>
     <sheet name="new metabolites" sheetId="3" r:id="rId5"/>
-    <sheet name="Lactase" sheetId="7" r:id="rId6"/>
-    <sheet name="α-Amylase" sheetId="8" r:id="rId7"/>
-    <sheet name="Hemoglobin" sheetId="9" r:id="rId8"/>
-    <sheet name="Glucagon" sheetId="10" r:id="rId9"/>
+    <sheet name="Models" sheetId="13" r:id="rId6"/>
+    <sheet name="Lactase" sheetId="7" r:id="rId7"/>
+    <sheet name="α-Amylase" sheetId="8" r:id="rId8"/>
+    <sheet name="Hemoglobin" sheetId="9" r:id="rId9"/>
+    <sheet name="Glucagon" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="2229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3033" uniqueCount="2340">
   <si>
     <t>3-hydroxypropionate dehydrogenase</t>
   </si>
@@ -11613,6 +11614,417 @@
   <si>
     <t>PDC1,5,6, Fum, ICL, MAS</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecModel</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ec3HP-asp.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ec3HP-malcoa.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecFFAs.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>eccis_Muconate.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecResveratrol.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecCinnamate.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecQuercetin.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecKaempferol.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecGenistein.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecCoumaric_acid.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4235[e]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>artemisinic acid [extracellular]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecArtemisinic.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4240[e]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecbeta_Carotene.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecLinalool.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecLimonene.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ec4-hydroxymandelic_acid.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecmandelic_acid.mat</t>
+  </si>
+  <si>
+    <t>Oleanolic acid [extracellular]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecOleanolate.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4254[e]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adipic acid [extracellular]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecAdipic_acid.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecNaringenin.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecCatechin.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4262[e]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>amorphadiene [extracellular]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecAmorphadiene.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4265[e]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>protopanaxadiol [extracellular]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecProtopanaxadiol.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4267[e]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecGeraniol.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>patchoulol [extracellular]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecPatchoulol.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4271[e]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>lupeol [extracellular]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecLupeol.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecbeta_Amyrin.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecAstaxanthin.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecFarnesene.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecSantalene.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecLactase.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4299[e]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ec(S)-reticuline.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4302[e]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>β-ionone [extracellular]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecbeta_Ionone.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4309[e]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecXanthone.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ectriacylglycerol.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecARA.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecEPA.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DHA [extracellular]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecDHA.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4346[e]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>n-butanol [extracellular]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecn-Butanol.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4348[e]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>docosanol [extracellular]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecDocosanol.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Itaconic acid [extracellular]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecItaconic_acid.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethylene [extracellular]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecEthylene.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAS [extracellular]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecHAS.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecalpha_Amylase.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>hemoglobin [extracellular]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecHemoglobin.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecGlucagon.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_1459[e]</t>
+  </si>
+  <si>
+    <t>succinate [extracellular]</t>
+  </si>
+  <si>
+    <t>ecSuc-reTCA.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_1267[e]</t>
+  </si>
+  <si>
+    <t>ornithine [extracellular]</t>
+  </si>
+  <si>
+    <t>ecOrnithine.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_1052[e]</t>
+  </si>
+  <si>
+    <t>L-tyrosine [extracellular]</t>
+  </si>
+  <si>
+    <t>ecTyrosine.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_0726[e]</t>
+  </si>
+  <si>
+    <t>fumarate [extracellular]</t>
+  </si>
+  <si>
+    <t>ecFumaric_acid.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_1400[e]</t>
+  </si>
+  <si>
+    <t>pyruvate [extracellular]</t>
+  </si>
+  <si>
+    <t>ecPyruvate.mat</t>
+  </si>
+  <si>
+    <t>s_0067[e]</t>
+  </si>
+  <si>
+    <t>(S)-malate [extracellular]</t>
+  </si>
+  <si>
+    <t>ecMalate.mat</t>
+  </si>
+  <si>
+    <t>s_0064[e]</t>
+  </si>
+  <si>
+    <t>(S)-lactate [extracellular]</t>
+  </si>
+  <si>
+    <t>ecLactate.mat</t>
+  </si>
+  <si>
+    <t>s_0933[e]</t>
+  </si>
+  <si>
+    <t>isobutanol [extracellular]</t>
+  </si>
+  <si>
+    <t>ecIsobutanol.mat</t>
+  </si>
+  <si>
+    <t>s_0930[e]</t>
+  </si>
+  <si>
+    <t>isoamylol [extracellular]</t>
+  </si>
+  <si>
+    <t>ec3-methylbutanol.mat</t>
+  </si>
+  <si>
+    <t>s_0668[e]</t>
+  </si>
+  <si>
+    <t>ergosterol [extracellular]</t>
+  </si>
+  <si>
+    <t>ecErgosterol.mat</t>
+  </si>
+  <si>
+    <t>s_0751[e]</t>
+  </si>
+  <si>
+    <t>glutathione [extracellular]</t>
+  </si>
+  <si>
+    <t>ecGlutathione.mat</t>
+  </si>
+  <si>
+    <t>s_0186[e]</t>
+  </si>
+  <si>
+    <t>2-phenylethanol [extracellular]</t>
+  </si>
+  <si>
+    <t>ec2-phenylethanol.mat</t>
   </si>
 </sst>
 </file>
@@ -11909,6 +12321,8 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -11930,8 +12344,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -12613,6 +13025,519 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="7.25" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="10" max="11" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="47" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:13" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="27" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>2020</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C5" s="41">
+        <v>7.2222222222222215E-2</v>
+      </c>
+      <c r="D5" s="34">
+        <v>71.09</v>
+      </c>
+      <c r="E5" s="42">
+        <v>0.62227866768414009</v>
+      </c>
+      <c r="F5" s="49">
+        <v>20909</v>
+      </c>
+      <c r="H5" s="41"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="M5" s="42"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="41">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="D6" s="34">
+        <v>156.19999999999999</v>
+      </c>
+      <c r="E6" s="42">
+        <v>0.76588143714971091</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="H6" s="41"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="M6" s="42"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="41">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="D7" s="34">
+        <v>114.12</v>
+      </c>
+      <c r="E7" s="42">
+        <v>0.38294071857485545</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="H7" s="41"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="M7" s="42"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C8" s="41">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="D8" s="35">
+        <v>115.1</v>
+      </c>
+      <c r="E8" s="42">
+        <v>0.76588143714971091</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="H8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="M8" s="42"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C9" s="41">
+        <v>0</v>
+      </c>
+      <c r="D9" s="34">
+        <v>103.16</v>
+      </c>
+      <c r="E9" s="42">
+        <v>0</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="H9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="M9" s="42"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C10" s="41">
+        <v>7.2222222222222215E-2</v>
+      </c>
+      <c r="D10" s="34">
+        <v>128.15</v>
+      </c>
+      <c r="E10" s="42">
+        <v>0.62227866768414009</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="H10" s="41"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="M10" s="42"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C11" s="41">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="D11" s="34">
+        <v>129.13</v>
+      </c>
+      <c r="E11" s="42">
+        <v>0.47867589821856926</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="H11" s="41"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="M11" s="42"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C12" s="41">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="34">
+        <v>57.07</v>
+      </c>
+      <c r="E12" s="42">
+        <v>0.43080830839671241</v>
+      </c>
+      <c r="F12" s="50"/>
+      <c r="H12" s="41"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="M12" s="42"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C13" s="41">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="D13" s="34">
+        <v>137.16</v>
+      </c>
+      <c r="E13" s="42">
+        <v>0.19147035928742773</v>
+      </c>
+      <c r="F13" s="50"/>
+      <c r="H13" s="41"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="M13" s="42"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C14" s="41">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="D14" s="34">
+        <v>113.18</v>
+      </c>
+      <c r="E14" s="42">
+        <v>0.38294071857485545</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="H14" s="41"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="M14" s="42"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C15" s="41">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D15" s="34">
+        <v>113.18</v>
+      </c>
+      <c r="E15" s="42">
+        <v>0.57441107786228329</v>
+      </c>
+      <c r="F15" s="50"/>
+      <c r="H15" s="41"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="M15" s="42"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C16" s="41">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="D16" s="34">
+        <v>128.19</v>
+      </c>
+      <c r="E16" s="42">
+        <v>0.47867589821856926</v>
+      </c>
+      <c r="F16" s="50"/>
+      <c r="H16" s="41"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="M16" s="42"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C17" s="41">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D17" s="34">
+        <v>131.21</v>
+      </c>
+      <c r="E17" s="42">
+        <v>0.23933794910928463</v>
+      </c>
+      <c r="F17" s="50"/>
+      <c r="H17" s="41"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="M17" s="42"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C18" s="41">
+        <v>6.1111111111111109E-2</v>
+      </c>
+      <c r="D18" s="34">
+        <v>147.19</v>
+      </c>
+      <c r="E18" s="42">
+        <v>0.52654348804042628</v>
+      </c>
+      <c r="F18" s="50"/>
+      <c r="H18" s="41"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="M18" s="42"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C19" s="41">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="D19" s="34">
+        <v>97.13</v>
+      </c>
+      <c r="E19" s="42">
+        <v>0.14360276946557082</v>
+      </c>
+      <c r="F19" s="50"/>
+      <c r="H19" s="41"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="M19" s="42"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C20" s="41">
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="D20" s="34">
+        <v>87.09</v>
+      </c>
+      <c r="E20" s="42">
+        <v>0.81374902697156781</v>
+      </c>
+      <c r="F20" s="50"/>
+      <c r="H20" s="41"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="M20" s="42"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C21" s="41">
+        <v>0.05</v>
+      </c>
+      <c r="D21" s="34">
+        <v>101.12</v>
+      </c>
+      <c r="E21" s="42">
+        <v>0.43080830839671241</v>
+      </c>
+      <c r="F21" s="50"/>
+      <c r="H21" s="41"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="M21" s="42"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C22" s="41">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="D22" s="34">
+        <v>186.23</v>
+      </c>
+      <c r="E22" s="42">
+        <v>0.19147035928742773</v>
+      </c>
+      <c r="F22" s="50"/>
+      <c r="H22" s="41"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="M22" s="42"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C23" s="41">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="D23" s="34">
+        <v>163.19</v>
+      </c>
+      <c r="E23" s="42">
+        <v>0.19147035928742773</v>
+      </c>
+      <c r="F23" s="50"/>
+      <c r="H23" s="41"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="M23" s="42"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C24" s="41">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="D24" s="34">
+        <v>99.15</v>
+      </c>
+      <c r="E24" s="42">
+        <v>0.38294071857485545</v>
+      </c>
+      <c r="F24" s="51"/>
+      <c r="H24" s="41"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="M24" s="42"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="29" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="F5:F24"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
@@ -12727,7 +13652,7 @@
       <c r="G6">
         <v>27.138300000000001</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="45">
         <v>119.72799999999999</v>
       </c>
       <c r="I6">
@@ -13097,8 +14022,8 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -24465,9 +25390,661 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="32.25" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B10" t="s">
+        <v>394</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B12" t="s">
+        <v>479</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B13" t="s">
+        <v>480</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B14" t="s">
+        <v>482</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B15" t="s">
+        <v>519</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B16" t="s">
+        <v>520</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>725</v>
+      </c>
+      <c r="B19" t="s">
+        <v>726</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>792</v>
+      </c>
+      <c r="B20" t="s">
+        <v>795</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B23" t="s">
+        <v>990</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2332</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -24483,15 +26060,15 @@
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:9" ht="270.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="47" t="s">
         <v>2022</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:9" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -24527,7 +26104,7 @@
       <c r="E5" s="36">
         <v>0.65160211522895095</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="49">
         <v>109712</v>
       </c>
       <c r="I5" s="36"/>
@@ -24548,7 +26125,7 @@
       <c r="E6" s="36">
         <v>0.26429726200595238</v>
       </c>
-      <c r="F6" s="48"/>
+      <c r="F6" s="50"/>
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -24567,7 +26144,7 @@
       <c r="E7" s="36">
         <v>0.50125342794232353</v>
       </c>
-      <c r="F7" s="48"/>
+      <c r="F7" s="50"/>
       <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -24586,7 +26163,7 @@
       <c r="E8" s="36">
         <v>0.49213972925246308</v>
       </c>
-      <c r="F8" s="48"/>
+      <c r="F8" s="50"/>
       <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -24605,7 +26182,7 @@
       <c r="E9" s="36">
         <v>5.4682192139162568E-2</v>
       </c>
-      <c r="F9" s="48"/>
+      <c r="F9" s="50"/>
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -24624,7 +26201,7 @@
       <c r="E10" s="36">
         <v>0.43745753711330054</v>
       </c>
-      <c r="F10" s="48"/>
+      <c r="F10" s="50"/>
       <c r="I10" s="36"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -24643,7 +26220,7 @@
       <c r="E11" s="36">
         <v>0.25518356331609193</v>
       </c>
-      <c r="F11" s="48"/>
+      <c r="F11" s="50"/>
       <c r="I11" s="36"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -24662,7 +26239,7 @@
       <c r="E12" s="36">
         <v>0.91136986898604266</v>
       </c>
-      <c r="F12" s="48"/>
+      <c r="F12" s="50"/>
       <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -24681,7 +26258,7 @@
       <c r="E13" s="36">
         <v>0.12759178165804597</v>
       </c>
-      <c r="F13" s="48"/>
+      <c r="F13" s="50"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -24700,7 +26277,7 @@
       <c r="E14" s="36">
         <v>0.44657123580316094</v>
       </c>
-      <c r="F14" s="48"/>
+      <c r="F14" s="50"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -24719,7 +26296,7 @@
       <c r="E15" s="36">
         <v>0.85668767684688019</v>
       </c>
-      <c r="F15" s="48"/>
+      <c r="F15" s="50"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -24738,7 +26315,7 @@
       <c r="E16" s="36">
         <v>0.4192301397335797</v>
       </c>
-      <c r="F16" s="48"/>
+      <c r="F16" s="50"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -24757,7 +26334,7 @@
       <c r="E17" s="36">
         <v>6.3795890829022983E-2</v>
       </c>
-      <c r="F17" s="48"/>
+      <c r="F17" s="50"/>
       <c r="I17" s="36"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -24776,7 +26353,7 @@
       <c r="E18" s="36">
         <v>0.36454794759441711</v>
       </c>
-      <c r="F18" s="48"/>
+      <c r="F18" s="50"/>
       <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -24795,7 +26372,7 @@
       <c r="E19" s="36">
         <v>0.49213972925246308</v>
       </c>
-      <c r="F19" s="48"/>
+      <c r="F19" s="50"/>
       <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -24814,7 +26391,7 @@
       <c r="E20" s="36">
         <v>0.85668767684688019</v>
       </c>
-      <c r="F20" s="48"/>
+      <c r="F20" s="50"/>
       <c r="I20" s="36"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -24833,7 +26410,7 @@
       <c r="E21" s="36">
         <v>0.71086849780911332</v>
       </c>
-      <c r="F21" s="48"/>
+      <c r="F21" s="50"/>
       <c r="I21" s="36"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -24852,7 +26429,7 @@
       <c r="E22" s="36">
         <v>0.18227397379720855</v>
       </c>
-      <c r="F22" s="48"/>
+      <c r="F22" s="50"/>
       <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -24871,7 +26448,7 @@
       <c r="E23" s="36">
         <v>0.53770822270176521</v>
       </c>
-      <c r="F23" s="48"/>
+      <c r="F23" s="50"/>
       <c r="I23" s="36"/>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24890,7 +26467,7 @@
       <c r="E24" s="36">
         <v>0.555935620081486</v>
       </c>
-      <c r="F24" s="49"/>
+      <c r="F24" s="51"/>
       <c r="I24" s="36"/>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -24915,7 +26492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M26"/>
   <sheetViews>
@@ -24935,15 +26512,15 @@
   <sheetData>
     <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:13" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="47" t="s">
         <v>2076</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:13" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -24976,7 +26553,7 @@
       <c r="E5" s="42">
         <v>0.76631477589467401</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="49">
         <v>54810</v>
       </c>
       <c r="J5" s="41"/>
@@ -24996,7 +26573,7 @@
       <c r="E6" s="42">
         <v>0.18245589902254142</v>
       </c>
-      <c r="F6" s="48"/>
+      <c r="F6" s="50"/>
       <c r="J6" s="41"/>
       <c r="K6" s="42"/>
       <c r="M6" s="42"/>
@@ -25014,7 +26591,7 @@
       <c r="E7" s="42">
         <v>0.47438533745860767</v>
       </c>
-      <c r="F7" s="48"/>
+      <c r="F7" s="50"/>
       <c r="J7" s="41"/>
       <c r="K7" s="42"/>
       <c r="M7" s="42"/>
@@ -25032,7 +26609,7 @@
       <c r="E8" s="42">
         <v>0.76631477589467401</v>
       </c>
-      <c r="F8" s="48"/>
+      <c r="F8" s="50"/>
       <c r="J8" s="41"/>
       <c r="K8" s="42"/>
       <c r="M8" s="42"/>
@@ -25050,7 +26627,7 @@
       <c r="E9" s="42">
         <v>0.16421030912028728</v>
       </c>
-      <c r="F9" s="48"/>
+      <c r="F9" s="50"/>
       <c r="J9" s="41"/>
       <c r="K9" s="42"/>
       <c r="M9" s="42"/>
@@ -25068,7 +26645,7 @@
       <c r="E10" s="42">
         <v>0.2189470788270497</v>
       </c>
-      <c r="F10" s="48"/>
+      <c r="F10" s="50"/>
       <c r="J10" s="41"/>
       <c r="K10" s="42"/>
       <c r="M10" s="42"/>
@@ -25086,7 +26663,7 @@
       <c r="E11" s="42">
         <v>0.36491179804508284</v>
       </c>
-      <c r="F11" s="48"/>
+      <c r="F11" s="50"/>
       <c r="J11" s="41"/>
       <c r="K11" s="42"/>
       <c r="M11" s="42"/>
@@ -25104,7 +26681,7 @@
       <c r="E12" s="42">
         <v>0.78456036579692812</v>
       </c>
-      <c r="F12" s="48"/>
+      <c r="F12" s="50"/>
       <c r="J12" s="41"/>
       <c r="K12" s="42"/>
       <c r="M12" s="42"/>
@@ -25122,7 +26699,7 @@
       <c r="E13" s="42">
         <v>0.127719129315779</v>
       </c>
-      <c r="F13" s="48"/>
+      <c r="F13" s="50"/>
       <c r="J13" s="41"/>
       <c r="K13" s="42"/>
       <c r="M13" s="42"/>
@@ -25140,7 +26717,7 @@
       <c r="E14" s="42">
         <v>0.510876517263116</v>
       </c>
-      <c r="F14" s="48"/>
+      <c r="F14" s="50"/>
       <c r="J14" s="41"/>
       <c r="K14" s="42"/>
       <c r="M14" s="42"/>
@@ -25158,7 +26735,7 @@
       <c r="E15" s="42">
         <v>0.67508682638340323</v>
       </c>
-      <c r="F15" s="48"/>
+      <c r="F15" s="50"/>
       <c r="J15" s="41"/>
       <c r="K15" s="42"/>
       <c r="M15" s="42"/>
@@ -25176,7 +26753,7 @@
       <c r="E16" s="42">
         <v>0.36491179804508284</v>
       </c>
-      <c r="F16" s="48"/>
+      <c r="F16" s="50"/>
       <c r="J16" s="41"/>
       <c r="K16" s="42"/>
       <c r="M16" s="42"/>
@@ -25194,7 +26771,7 @@
       <c r="E17" s="42">
         <v>0.20070148892479556</v>
       </c>
-      <c r="F17" s="48"/>
+      <c r="F17" s="50"/>
       <c r="J17" s="41"/>
       <c r="K17" s="42"/>
       <c r="M17" s="42"/>
@@ -25212,7 +26789,7 @@
       <c r="E18" s="42">
         <v>0.27368384853381211</v>
       </c>
-      <c r="F18" s="48"/>
+      <c r="F18" s="50"/>
       <c r="J18" s="41"/>
       <c r="K18" s="42"/>
       <c r="M18" s="42"/>
@@ -25230,7 +26807,7 @@
       <c r="E19" s="42">
         <v>0.40140297784959111</v>
       </c>
-      <c r="F19" s="48"/>
+      <c r="F19" s="50"/>
       <c r="J19" s="41"/>
       <c r="K19" s="42"/>
       <c r="M19" s="42"/>
@@ -25248,7 +26825,7 @@
       <c r="E20" s="42">
         <v>0.67508682638340323</v>
       </c>
-      <c r="F20" s="48"/>
+      <c r="F20" s="50"/>
       <c r="J20" s="41"/>
       <c r="K20" s="42"/>
       <c r="M20" s="42"/>
@@ -25266,7 +26843,7 @@
       <c r="E21" s="42">
         <v>0.72982359609016567</v>
       </c>
-      <c r="F21" s="48"/>
+      <c r="F21" s="50"/>
       <c r="J21" s="41"/>
       <c r="K21" s="42"/>
       <c r="M21" s="42"/>
@@ -25284,7 +26861,7 @@
       <c r="E22" s="42">
         <v>0.2189470788270497</v>
       </c>
-      <c r="F22" s="48"/>
+      <c r="F22" s="50"/>
       <c r="J22" s="41"/>
       <c r="K22" s="42"/>
       <c r="M22" s="42"/>
@@ -25302,7 +26879,7 @@
       <c r="E23" s="42">
         <v>0.63859564657889489</v>
       </c>
-      <c r="F23" s="48"/>
+      <c r="F23" s="50"/>
       <c r="J23" s="41"/>
       <c r="K23" s="42"/>
       <c r="M23" s="42"/>
@@ -25320,7 +26897,7 @@
       <c r="E24" s="42">
         <v>0.56561328696987834</v>
       </c>
-      <c r="F24" s="49"/>
+      <c r="F24" s="51"/>
       <c r="J24" s="41"/>
       <c r="K24" s="42"/>
       <c r="M24" s="42"/>
@@ -25347,7 +26924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K26"/>
   <sheetViews>
@@ -25366,26 +26943,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>2097</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="2:11" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="47" t="s">
         <v>2098</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:11" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -25418,7 +26995,7 @@
       <c r="E5" s="36">
         <v>1.1532327559965052</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="49">
         <v>62512</v>
       </c>
       <c r="I5" s="36"/>
@@ -25438,7 +27015,7 @@
       <c r="E6" s="36">
         <v>0.19220545933275085</v>
       </c>
-      <c r="F6" s="48"/>
+      <c r="F6" s="50"/>
       <c r="I6" s="36"/>
       <c r="J6" s="42"/>
       <c r="K6" s="41"/>
@@ -25456,7 +27033,7 @@
       <c r="E7" s="36">
         <v>0.32034243222125147</v>
       </c>
-      <c r="F7" s="48"/>
+      <c r="F7" s="50"/>
       <c r="I7" s="36"/>
       <c r="J7" s="42"/>
       <c r="K7" s="41"/>
@@ -25474,7 +27051,7 @@
       <c r="E8" s="36">
         <v>0.4805136483318771</v>
       </c>
-      <c r="F8" s="48"/>
+      <c r="F8" s="50"/>
       <c r="I8" s="36"/>
       <c r="J8" s="42"/>
       <c r="K8" s="41"/>
@@ -25492,7 +27069,7 @@
       <c r="E9" s="36">
         <v>9.6102729666375425E-2</v>
       </c>
-      <c r="F9" s="48"/>
+      <c r="F9" s="50"/>
       <c r="I9" s="36"/>
       <c r="J9" s="42"/>
       <c r="K9" s="41"/>
@@ -25510,7 +27087,7 @@
       <c r="E10" s="36">
         <v>0.3844109186655017</v>
       </c>
-      <c r="F10" s="48"/>
+      <c r="F10" s="50"/>
       <c r="I10" s="36"/>
       <c r="J10" s="42"/>
       <c r="K10" s="41"/>
@@ -25528,7 +27105,7 @@
       <c r="E11" s="36">
         <v>0.12813697288850059</v>
       </c>
-      <c r="F11" s="48"/>
+      <c r="F11" s="50"/>
       <c r="I11" s="36"/>
       <c r="J11" s="42"/>
       <c r="K11" s="41"/>
@@ -25546,7 +27123,7 @@
       <c r="E12" s="36">
         <v>0.64068486444250294</v>
       </c>
-      <c r="F12" s="48"/>
+      <c r="F12" s="50"/>
       <c r="I12" s="36"/>
       <c r="J12" s="42"/>
       <c r="K12" s="41"/>
@@ -25564,7 +27141,7 @@
       <c r="E13" s="36">
         <v>0.60865062122037772</v>
       </c>
-      <c r="F13" s="48"/>
+      <c r="F13" s="50"/>
       <c r="I13" s="36"/>
       <c r="J13" s="42"/>
       <c r="K13" s="41"/>
@@ -25582,7 +27159,7 @@
       <c r="E14" s="36">
         <v>0</v>
       </c>
-      <c r="F14" s="48"/>
+      <c r="F14" s="50"/>
       <c r="I14" s="36"/>
       <c r="J14" s="42"/>
       <c r="K14" s="41"/>
@@ -25600,7 +27177,7 @@
       <c r="E15" s="36">
         <v>1.1532327559965052</v>
       </c>
-      <c r="F15" s="48"/>
+      <c r="F15" s="50"/>
       <c r="I15" s="36"/>
       <c r="J15" s="42"/>
       <c r="K15" s="41"/>
@@ -25618,7 +27195,7 @@
       <c r="E16" s="36">
         <v>0.70475335088675317</v>
       </c>
-      <c r="F16" s="48"/>
+      <c r="F16" s="50"/>
       <c r="I16" s="36"/>
       <c r="J16" s="42"/>
       <c r="K16" s="41"/>
@@ -25636,7 +27213,7 @@
       <c r="E17" s="36">
         <v>0.16017121611062574</v>
       </c>
-      <c r="F17" s="48"/>
+      <c r="F17" s="50"/>
       <c r="I17" s="36"/>
       <c r="J17" s="42"/>
       <c r="K17" s="41"/>
@@ -25654,7 +27231,7 @@
       <c r="E18" s="36">
         <v>0.4805136483318771</v>
       </c>
-      <c r="F18" s="48"/>
+      <c r="F18" s="50"/>
       <c r="I18" s="36"/>
       <c r="J18" s="42"/>
       <c r="K18" s="41"/>
@@ -25672,7 +27249,7 @@
       <c r="E19" s="36">
         <v>0.44847940510975204</v>
       </c>
-      <c r="F19" s="48"/>
+      <c r="F19" s="50"/>
       <c r="I19" s="36"/>
       <c r="J19" s="42"/>
       <c r="K19" s="41"/>
@@ -25690,7 +27267,7 @@
       <c r="E20" s="36">
         <v>0.51254789155400238</v>
       </c>
-      <c r="F20" s="48"/>
+      <c r="F20" s="50"/>
       <c r="I20" s="36"/>
       <c r="J20" s="42"/>
       <c r="K20" s="41"/>
@@ -25708,7 +27285,7 @@
       <c r="E21" s="36">
         <v>0.51254789155400238</v>
       </c>
-      <c r="F21" s="48"/>
+      <c r="F21" s="50"/>
       <c r="I21" s="36"/>
       <c r="J21" s="42"/>
       <c r="K21" s="41"/>
@@ -25726,7 +27303,7 @@
       <c r="E22" s="36">
         <v>9.6102729666375425E-2</v>
       </c>
-      <c r="F22" s="48"/>
+      <c r="F22" s="50"/>
       <c r="I22" s="36"/>
       <c r="J22" s="42"/>
       <c r="K22" s="41"/>
@@ -25744,7 +27321,7 @@
       <c r="E23" s="36">
         <v>0.19220545933275085</v>
       </c>
-      <c r="F23" s="48"/>
+      <c r="F23" s="50"/>
       <c r="I23" s="36"/>
       <c r="J23" s="42"/>
       <c r="K23" s="41"/>
@@ -25762,7 +27339,7 @@
       <c r="E24" s="36">
         <v>0.99306153988587953</v>
       </c>
-      <c r="F24" s="49"/>
+      <c r="F24" s="51"/>
       <c r="I24" s="36"/>
       <c r="J24" s="42"/>
       <c r="K24" s="41"/>
@@ -25789,517 +27366,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="7.25" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="10" max="11" width="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45" t="s">
-        <v>2124</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="27" t="s">
-        <v>2017</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>2018</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>2019</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>2020</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2043</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>2023</v>
-      </c>
-      <c r="C5" s="41">
-        <v>7.2222222222222215E-2</v>
-      </c>
-      <c r="D5" s="34">
-        <v>71.09</v>
-      </c>
-      <c r="E5" s="42">
-        <v>0.62227866768414009</v>
-      </c>
-      <c r="F5" s="47">
-        <v>20909</v>
-      </c>
-      <c r="H5" s="41"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="M5" s="42"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2044</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>2024</v>
-      </c>
-      <c r="C6" s="41">
-        <v>8.8888888888888892E-2</v>
-      </c>
-      <c r="D6" s="34">
-        <v>156.19999999999999</v>
-      </c>
-      <c r="E6" s="42">
-        <v>0.76588143714971091</v>
-      </c>
-      <c r="F6" s="48"/>
-      <c r="H6" s="41"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="M6" s="42"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>2045</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>2025</v>
-      </c>
-      <c r="C7" s="41">
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="D7" s="34">
-        <v>114.12</v>
-      </c>
-      <c r="E7" s="42">
-        <v>0.38294071857485545</v>
-      </c>
-      <c r="F7" s="48"/>
-      <c r="H7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="M7" s="42"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>2046</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>2026</v>
-      </c>
-      <c r="C8" s="41">
-        <v>8.8888888888888892E-2</v>
-      </c>
-      <c r="D8" s="35">
-        <v>115.1</v>
-      </c>
-      <c r="E8" s="42">
-        <v>0.76588143714971091</v>
-      </c>
-      <c r="F8" s="48"/>
-      <c r="H8" s="41"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="M8" s="42"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>2047</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>2042</v>
-      </c>
-      <c r="C9" s="41">
-        <v>0</v>
-      </c>
-      <c r="D9" s="34">
-        <v>103.16</v>
-      </c>
-      <c r="E9" s="42">
-        <v>0</v>
-      </c>
-      <c r="F9" s="48"/>
-      <c r="H9" s="41"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="M9" s="42"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>2048</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>2027</v>
-      </c>
-      <c r="C10" s="41">
-        <v>7.2222222222222215E-2</v>
-      </c>
-      <c r="D10" s="34">
-        <v>128.15</v>
-      </c>
-      <c r="E10" s="42">
-        <v>0.62227866768414009</v>
-      </c>
-      <c r="F10" s="48"/>
-      <c r="H10" s="41"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="M10" s="42"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>2049</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>2028</v>
-      </c>
-      <c r="C11" s="41">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="D11" s="34">
-        <v>129.13</v>
-      </c>
-      <c r="E11" s="42">
-        <v>0.47867589821856926</v>
-      </c>
-      <c r="F11" s="48"/>
-      <c r="H11" s="41"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="M11" s="42"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>2050</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>2029</v>
-      </c>
-      <c r="C12" s="41">
-        <v>0.05</v>
-      </c>
-      <c r="D12" s="34">
-        <v>57.07</v>
-      </c>
-      <c r="E12" s="42">
-        <v>0.43080830839671241</v>
-      </c>
-      <c r="F12" s="48"/>
-      <c r="H12" s="41"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="M12" s="42"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>2051</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>2030</v>
-      </c>
-      <c r="C13" s="41">
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="D13" s="34">
-        <v>137.16</v>
-      </c>
-      <c r="E13" s="42">
-        <v>0.19147035928742773</v>
-      </c>
-      <c r="F13" s="48"/>
-      <c r="H13" s="41"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="M13" s="42"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>2052</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>2031</v>
-      </c>
-      <c r="C14" s="41">
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="D14" s="34">
-        <v>113.18</v>
-      </c>
-      <c r="E14" s="42">
-        <v>0.38294071857485545</v>
-      </c>
-      <c r="F14" s="48"/>
-      <c r="H14" s="41"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="M14" s="42"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>2053</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>2032</v>
-      </c>
-      <c r="C15" s="41">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="D15" s="34">
-        <v>113.18</v>
-      </c>
-      <c r="E15" s="42">
-        <v>0.57441107786228329</v>
-      </c>
-      <c r="F15" s="48"/>
-      <c r="H15" s="41"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="M15" s="42"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>2054</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>2033</v>
-      </c>
-      <c r="C16" s="41">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="D16" s="34">
-        <v>128.19</v>
-      </c>
-      <c r="E16" s="42">
-        <v>0.47867589821856926</v>
-      </c>
-      <c r="F16" s="48"/>
-      <c r="H16" s="41"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="M16" s="42"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>2055</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>2034</v>
-      </c>
-      <c r="C17" s="41">
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="D17" s="34">
-        <v>131.21</v>
-      </c>
-      <c r="E17" s="42">
-        <v>0.23933794910928463</v>
-      </c>
-      <c r="F17" s="48"/>
-      <c r="H17" s="41"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="M17" s="42"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>2056</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>2035</v>
-      </c>
-      <c r="C18" s="41">
-        <v>6.1111111111111109E-2</v>
-      </c>
-      <c r="D18" s="34">
-        <v>147.19</v>
-      </c>
-      <c r="E18" s="42">
-        <v>0.52654348804042628</v>
-      </c>
-      <c r="F18" s="48"/>
-      <c r="H18" s="41"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="M18" s="42"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>2057</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>2036</v>
-      </c>
-      <c r="C19" s="41">
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="D19" s="34">
-        <v>97.13</v>
-      </c>
-      <c r="E19" s="42">
-        <v>0.14360276946557082</v>
-      </c>
-      <c r="F19" s="48"/>
-      <c r="H19" s="41"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="M19" s="42"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>2058</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>2037</v>
-      </c>
-      <c r="C20" s="41">
-        <v>9.4444444444444442E-2</v>
-      </c>
-      <c r="D20" s="34">
-        <v>87.09</v>
-      </c>
-      <c r="E20" s="42">
-        <v>0.81374902697156781</v>
-      </c>
-      <c r="F20" s="48"/>
-      <c r="H20" s="41"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="M20" s="42"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>2059</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>2038</v>
-      </c>
-      <c r="C21" s="41">
-        <v>0.05</v>
-      </c>
-      <c r="D21" s="34">
-        <v>101.12</v>
-      </c>
-      <c r="E21" s="42">
-        <v>0.43080830839671241</v>
-      </c>
-      <c r="F21" s="48"/>
-      <c r="H21" s="41"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="M21" s="42"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>2060</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>2039</v>
-      </c>
-      <c r="C22" s="41">
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="D22" s="34">
-        <v>186.23</v>
-      </c>
-      <c r="E22" s="42">
-        <v>0.19147035928742773</v>
-      </c>
-      <c r="F22" s="48"/>
-      <c r="H22" s="41"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="M22" s="42"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>2061</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>2040</v>
-      </c>
-      <c r="C23" s="41">
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="D23" s="34">
-        <v>163.19</v>
-      </c>
-      <c r="E23" s="42">
-        <v>0.19147035928742773</v>
-      </c>
-      <c r="F23" s="48"/>
-      <c r="H23" s="41"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="M23" s="42"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>2062</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>2041</v>
-      </c>
-      <c r="C24" s="41">
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="D24" s="34">
-        <v>99.15</v>
-      </c>
-      <c r="E24" s="42">
-        <v>0.38294071857485545</v>
-      </c>
-      <c r="F24" s="49"/>
-      <c r="H24" s="41"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="M24" s="42"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="29" t="s">
-        <v>2125</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-    </row>
-    <row r="26" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="F5:F24"/>
-  </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/result_ecYeast/Data_Allchemicals.xlsx
+++ b/result_ecYeast/Data_Allchemicals.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="3HP_Rxn " sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3432" uniqueCount="2611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3466" uniqueCount="2639">
   <si>
     <t>3-hydroxypropionate dehydrogenase</t>
   </si>
@@ -13104,6 +13104,95 @@
   </si>
   <si>
     <t xml:space="preserve">49.304 prot_pool  -&gt; prot_P50537 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10-methylenetetrahydrofolate reductase (NADPH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_0306 + 2 s_0794 + s_1212 + 0.00784683 prot_Q9SE60 -&gt; s_0322 + s_1207 </t>
+  </si>
+  <si>
+    <t>MTHFR1(Arabidopsis thaliana)</t>
+  </si>
+  <si>
+    <t>Q9SE60</t>
+  </si>
+  <si>
+    <t>1.5.1.20</t>
+  </si>
+  <si>
+    <t>0.0000526 mmol/gDCW/h</t>
+  </si>
+  <si>
+    <t>0.0019 mmol/gDCW/h</t>
+  </si>
+  <si>
+    <t>MET13</t>
+  </si>
+  <si>
+    <t>Metabolic Engineering of Saccharomyces cerevisiae Producing Nicotianamine: Potential for Industrial Biosynthesis of a Novel Antihypertensive Substrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_0306 + 2 s_0794 + s_1203 + 0.00761035 prot_Q9SE60 -&gt; s_0322 + s_1198 </t>
+  </si>
+  <si>
+    <t>Nicotianamine synthase</t>
+  </si>
+  <si>
+    <t>3 s_1416 + prot_Q9FKT9 -&gt; 3 s_0794 + s_4370 + 3 s_0303</t>
+  </si>
+  <si>
+    <t>NAS2 (Arabidopsis thaliana)</t>
+  </si>
+  <si>
+    <t>Q9FKT9</t>
+  </si>
+  <si>
+    <t>2.5.1.43</t>
+  </si>
+  <si>
+    <t>nicotianamine transport</t>
+  </si>
+  <si>
+    <t>s_4370 -&gt; s_4371</t>
+  </si>
+  <si>
+    <t>nicotianamine exchaneg</t>
+  </si>
+  <si>
+    <t>s_4371 -&gt;</t>
+  </si>
+  <si>
+    <t>draw_prot_Q9SE60</t>
+  </si>
+  <si>
+    <t>66.288 prot_pool  -&gt; prot_Q9SE60</t>
+  </si>
+  <si>
+    <t>draw_prot_Q9FKT9</t>
+  </si>
+  <si>
+    <t>35.679 prot_pool  -&gt; prot_Q9FKT9</t>
+  </si>
+  <si>
+    <t>s_4370[c]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4371[e]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicotianamine</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicotianamine [cytoplasm]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicotianamine [extracellular]</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -15218,10 +15307,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R586"/>
+  <dimension ref="A1:R594"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A577" workbookViewId="0">
+      <selection activeCell="E592" sqref="E592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26251,7 +26340,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="577" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B577" s="2">
         <v>5</v>
       </c>
@@ -26268,7 +26357,7 @@
         <v>144.9999</v>
       </c>
     </row>
-    <row r="578" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B578" s="2">
         <v>6</v>
       </c>
@@ -26285,7 +26374,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="579" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B579" s="2">
         <v>7</v>
       </c>
@@ -26296,7 +26385,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="580" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B580" s="2">
         <v>8</v>
       </c>
@@ -26307,7 +26396,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="581" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B581" s="2">
         <v>9</v>
       </c>
@@ -26324,7 +26413,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="582" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B582" s="2">
         <v>10</v>
       </c>
@@ -26335,7 +26424,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="583" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B583" s="2">
         <v>11</v>
       </c>
@@ -26346,7 +26435,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="584" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B584" s="2">
         <v>12</v>
       </c>
@@ -26357,7 +26446,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="585" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B585" s="2">
         <v>13</v>
       </c>
@@ -26368,7 +26457,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="586" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B586" s="2">
         <v>14</v>
       </c>
@@ -26377,6 +26466,155 @@
       </c>
       <c r="D586" s="2" t="s">
         <v>2598</v>
+      </c>
+    </row>
+    <row r="588" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A588" s="2" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B588" s="2">
+        <v>1</v>
+      </c>
+      <c r="C588" s="2" t="s">
+        <v>2611</v>
+      </c>
+      <c r="D588" s="2" t="s">
+        <v>2612</v>
+      </c>
+      <c r="E588" s="2" t="s">
+        <v>2613</v>
+      </c>
+      <c r="F588" s="2" t="s">
+        <v>2614</v>
+      </c>
+      <c r="G588" s="2" t="s">
+        <v>2615</v>
+      </c>
+      <c r="H588" s="2">
+        <v>3.5353599999999999E-2</v>
+      </c>
+      <c r="I588" s="2">
+        <v>66.287999999999997</v>
+      </c>
+      <c r="J588" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="L588" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="M588" s="2" t="s">
+        <v>2616</v>
+      </c>
+      <c r="N588" s="2" t="s">
+        <v>2617</v>
+      </c>
+      <c r="O588" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q588" s="2" t="s">
+        <v>2618</v>
+      </c>
+      <c r="R588" s="2" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="589" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B589" s="2">
+        <v>2</v>
+      </c>
+      <c r="C589" s="2" t="s">
+        <v>2611</v>
+      </c>
+      <c r="D589" s="2" t="s">
+        <v>2620</v>
+      </c>
+      <c r="E589" s="2" t="s">
+        <v>2613</v>
+      </c>
+      <c r="F589" s="2" t="s">
+        <v>2614</v>
+      </c>
+      <c r="G589" s="2" t="s">
+        <v>2615</v>
+      </c>
+      <c r="H589" s="2">
+        <v>3.6458400000000002E-2</v>
+      </c>
+      <c r="I589" s="2">
+        <v>66.287999999999997</v>
+      </c>
+      <c r="J589" s="2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="590" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B590" s="2">
+        <v>3</v>
+      </c>
+      <c r="C590" s="2" t="s">
+        <v>2621</v>
+      </c>
+      <c r="D590" s="2" t="s">
+        <v>2622</v>
+      </c>
+      <c r="E590" s="2" t="s">
+        <v>2623</v>
+      </c>
+      <c r="F590" s="2" t="s">
+        <v>2624</v>
+      </c>
+      <c r="G590" s="2" t="s">
+        <v>2625</v>
+      </c>
+      <c r="H590" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I590" s="2">
+        <v>35.679000000000002</v>
+      </c>
+    </row>
+    <row r="591" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B591" s="2">
+        <v>4</v>
+      </c>
+      <c r="C591" s="2" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D591" s="2" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="592" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B592" s="2">
+        <v>5</v>
+      </c>
+      <c r="C592" s="2" t="s">
+        <v>2628</v>
+      </c>
+      <c r="D592" s="2" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="593" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B593" s="2">
+        <v>6</v>
+      </c>
+      <c r="C593" s="2" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D593" s="2" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="594" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B594" s="2">
+        <v>7</v>
+      </c>
+      <c r="C594" s="2" t="s">
+        <v>2632</v>
+      </c>
+      <c r="D594" s="2" t="s">
+        <v>2633</v>
       </c>
     </row>
   </sheetData>
@@ -26392,10 +26630,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D165"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="A165" sqref="A165"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27724,6 +27962,22 @@
       </c>
       <c r="B165" t="s">
         <v>2593</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B166" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B167" t="s">
+        <v>2638</v>
       </c>
     </row>
   </sheetData>

--- a/result_ecYeast/Data_Allchemicals.xlsx
+++ b/result_ecYeast/Data_Allchemicals.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="3HP_Rxn " sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3466" uniqueCount="2639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3544" uniqueCount="2706">
   <si>
     <t>3-hydroxypropionate dehydrogenase</t>
   </si>
@@ -13193,6 +13193,430 @@
   </si>
   <si>
     <t>Nicotianamine [extracellular]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4372[c]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tryptamine [cytoplasm]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4373[c]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-hydroxytryptamine [cytoplasm]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4374[c]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>norbaeocystin [cytoplasm]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4375[c]</t>
+  </si>
+  <si>
+    <t>psilocybin [cytoplasm]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4376[c]</t>
+  </si>
+  <si>
+    <t>psilocin [cytoplasm]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4377[e]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>psilocybin [extracellular]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Psilocybin</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tryptophan decarboxylase</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_1048 + 8.34168e-05 prot_A0A3S7SKS7 -&gt; s_4372 + s_0456</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CrTdc (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Catharanthus roseus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0A3S7SKS7</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.1.105</t>
+  </si>
+  <si>
+    <t>0.0005738 mmol/gDCW/h</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ARO4 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metabolic engineering of Saccharomyces cerevisiae for the de novo production of psilocybin and related tryptamine derivatives</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tryptamine 4-monooxygenase</t>
+  </si>
+  <si>
+    <t>s_4372 + s_1275 + prot_P0DPA7 -&gt; s_4373 + s_0803</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PcpsiH (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Psilocybe cubensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0DPA7</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.14.99.59</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-hydroxytryptamine kinase</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4373 + s_0434 + prot_P0DPA8 -&gt; s_4374 + s_0394 + s_0794</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PcPsiK (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Psilocybe cubensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0DPA8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.7.1.222</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-methyltransferase</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4374 + 2 s_1416 + prot_P0DPA9 -&gt; 2 s_0794 + s_4375 + 2 s_1413</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PcPsiM (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Psilocybe cubensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0DPA9</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.1.345</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>spontaneous reaction</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4375 -&gt; s_4376</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-hydroxytryptamine kinase</t>
+  </si>
+  <si>
+    <t>s_0434 + s_4376 + prot_P0DPA8 -&gt; s_0394 + s_4375</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PcPsiK (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Psilocybe cubensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0DPA8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">s_0434 + s_1429 + 2.31481e-06 prot_P08566  -&gt; s_0261 + s_0394 + s_0794 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_0279No1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">s_0324 + 0.000159642 prot_P28777  -&gt; s_0515 + s_1322 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.74 (Kcat*2)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARO2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">s_0551 + s_0803 + s_1360 + 0.0033548 prot_P32449ly  -&gt; s_0349 + s_1322 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ARO4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>K229L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S. cerevisiae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P32449ly</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw_prot_A0A3S7SKS7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.221 prot_pool  -&gt; prot_A0A3S7SKS7</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw_prot_P0DPA7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>57.515 prot_pool  -&gt; prot_P0DPA7</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw_prot_P0DPA8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40.442 prot_pool  -&gt; prot_P0DPA8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw_prot_P0DPA9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>34.434 prot_pool  -&gt; prot_P0DPA9</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw_prot_P32449ly</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.7487 prot_pool  -&gt; prot_P32449ly</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Psilocybin transport</t>
+  </si>
+  <si>
+    <t>s_4375 -&gt; s_4377</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Psilocybin exchange</t>
+  </si>
+  <si>
+    <t>s_4377 -&gt;</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -13415,7 +13839,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -13499,6 +13923,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15307,10 +15734,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R594"/>
+  <dimension ref="A1:R611"/>
   <sheetViews>
-    <sheetView topLeftCell="A577" workbookViewId="0">
-      <selection activeCell="E592" sqref="E592"/>
+    <sheetView tabSelected="1" topLeftCell="A592" workbookViewId="0">
+      <selection activeCell="D606" sqref="D606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26294,7 +26721,7 @@
       <c r="N573" s="2" t="s">
         <v>2608</v>
       </c>
-      <c r="O573" s="7" t="s">
+      <c r="O573" s="20" t="s">
         <v>2545</v>
       </c>
       <c r="R573" s="2" t="s">
@@ -26508,7 +26935,7 @@
       <c r="N588" s="2" t="s">
         <v>2617</v>
       </c>
-      <c r="O588" s="7" t="s">
+      <c r="O588" s="20" t="s">
         <v>81</v>
       </c>
       <c r="Q588" s="2" t="s">
@@ -26595,7 +27022,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="593" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B593" s="2">
         <v>6</v>
       </c>
@@ -26606,7 +27033,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="594" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B594" s="2">
         <v>7</v>
       </c>
@@ -26615,6 +27042,314 @@
       </c>
       <c r="D594" s="2" t="s">
         <v>2633</v>
+      </c>
+    </row>
+    <row r="596" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A596" s="2" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B596" s="2">
+        <v>1</v>
+      </c>
+      <c r="C596" s="2" t="s">
+        <v>2652</v>
+      </c>
+      <c r="D596" s="52" t="s">
+        <v>2653</v>
+      </c>
+      <c r="E596" s="2" t="s">
+        <v>2654</v>
+      </c>
+      <c r="F596" s="2" t="s">
+        <v>2655</v>
+      </c>
+      <c r="G596" s="2" t="s">
+        <v>2656</v>
+      </c>
+      <c r="H596" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="I596" s="2">
+        <v>56.220999999999997</v>
+      </c>
+      <c r="L596" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="N596" s="2" t="s">
+        <v>2657</v>
+      </c>
+      <c r="O596" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q596" s="2" t="s">
+        <v>2658</v>
+      </c>
+      <c r="R596" s="2" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="597" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B597" s="2">
+        <v>2</v>
+      </c>
+      <c r="C597" s="2" t="s">
+        <v>2660</v>
+      </c>
+      <c r="D597" s="2" t="s">
+        <v>2661</v>
+      </c>
+      <c r="E597" s="2" t="s">
+        <v>2662</v>
+      </c>
+      <c r="F597" s="2" t="s">
+        <v>2663</v>
+      </c>
+      <c r="G597" s="2" t="s">
+        <v>2664</v>
+      </c>
+      <c r="H597" s="2" t="s">
+        <v>2665</v>
+      </c>
+      <c r="I597" s="2">
+        <v>57.515000000000001</v>
+      </c>
+    </row>
+    <row r="598" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B598" s="2">
+        <v>3</v>
+      </c>
+      <c r="C598" s="2" t="s">
+        <v>2666</v>
+      </c>
+      <c r="D598" s="2" t="s">
+        <v>2667</v>
+      </c>
+      <c r="E598" s="2" t="s">
+        <v>2668</v>
+      </c>
+      <c r="F598" s="2" t="s">
+        <v>2669</v>
+      </c>
+      <c r="G598" s="2" t="s">
+        <v>2670</v>
+      </c>
+      <c r="H598" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="I598" s="2">
+        <v>40.442</v>
+      </c>
+    </row>
+    <row r="599" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B599" s="2">
+        <v>4</v>
+      </c>
+      <c r="C599" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="D599" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E599" s="2" t="s">
+        <v>2674</v>
+      </c>
+      <c r="F599" s="2" t="s">
+        <v>2675</v>
+      </c>
+      <c r="G599" s="2" t="s">
+        <v>2676</v>
+      </c>
+      <c r="H599" s="2" t="s">
+        <v>2677</v>
+      </c>
+      <c r="I599" s="2">
+        <v>34.433999999999997</v>
+      </c>
+    </row>
+    <row r="600" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B600" s="2">
+        <v>5</v>
+      </c>
+      <c r="C600" s="2" t="s">
+        <v>2678</v>
+      </c>
+      <c r="D600" s="2" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="601" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B601" s="2">
+        <v>6</v>
+      </c>
+      <c r="C601" s="2" t="s">
+        <v>2680</v>
+      </c>
+      <c r="D601" s="2" t="s">
+        <v>2681</v>
+      </c>
+      <c r="E601" s="2" t="s">
+        <v>2682</v>
+      </c>
+      <c r="F601" s="2" t="s">
+        <v>2683</v>
+      </c>
+      <c r="G601" s="2" t="s">
+        <v>2670</v>
+      </c>
+      <c r="H601" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="I601" s="2">
+        <v>40.442</v>
+      </c>
+    </row>
+    <row r="602" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B602" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C602" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D602" s="2" t="s">
+        <v>2684</v>
+      </c>
+      <c r="H602" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="I602" s="2">
+        <v>174.75299999999999</v>
+      </c>
+      <c r="P602" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="603" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B603" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C603" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D603" t="s">
+        <v>2686</v>
+      </c>
+      <c r="H603" s="2" t="s">
+        <v>2687</v>
+      </c>
+      <c r="P603" s="2" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="604" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B604" s="8">
+        <v>7</v>
+      </c>
+      <c r="C604" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D604" s="2" t="s">
+        <v>2689</v>
+      </c>
+      <c r="E604" s="2" t="s">
+        <v>2690</v>
+      </c>
+      <c r="F604" s="2" t="s">
+        <v>2691</v>
+      </c>
+      <c r="G604" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H604" s="2">
+        <v>8.280979166666666E-2</v>
+      </c>
+      <c r="I604" s="2">
+        <v>39.748699999999999</v>
+      </c>
+      <c r="J604" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="K604" s="8"/>
+      <c r="L604" s="9"/>
+      <c r="M604" s="8"/>
+      <c r="R604" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="605" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B605" s="2">
+        <v>8</v>
+      </c>
+      <c r="C605" s="12" t="s">
+        <v>2692</v>
+      </c>
+      <c r="D605" s="12" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="606" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B606" s="2">
+        <v>9</v>
+      </c>
+      <c r="C606" s="12" t="s">
+        <v>2694</v>
+      </c>
+      <c r="D606" s="12" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="607" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B607" s="2">
+        <v>10</v>
+      </c>
+      <c r="C607" s="12" t="s">
+        <v>2696</v>
+      </c>
+      <c r="D607" s="12" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="608" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B608" s="2">
+        <v>11</v>
+      </c>
+      <c r="C608" s="12" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D608" s="12" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="609" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B609" s="2">
+        <v>12</v>
+      </c>
+      <c r="C609" s="12" t="s">
+        <v>2700</v>
+      </c>
+      <c r="D609" s="12" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="610" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B610" s="2">
+        <v>13</v>
+      </c>
+      <c r="C610" s="2" t="s">
+        <v>2702</v>
+      </c>
+      <c r="D610" s="12" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="611" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B611" s="2">
+        <v>14</v>
+      </c>
+      <c r="C611" s="2" t="s">
+        <v>2704</v>
+      </c>
+      <c r="D611" s="2" t="s">
+        <v>2705</v>
       </c>
     </row>
   </sheetData>
@@ -26630,10 +27365,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="A168" sqref="A168:B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27978,6 +28713,54 @@
       </c>
       <c r="B167" t="s">
         <v>2638</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B168" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B169" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B170" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B171" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B172" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B173" t="s">
+        <v>2650</v>
       </c>
     </row>
   </sheetData>

--- a/result_ecYeast/Data_Allchemicals.xlsx
+++ b/result_ecYeast/Data_Allchemicals.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="3HP_Rxn " sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3544" uniqueCount="2706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3617" uniqueCount="2763">
   <si>
     <t>3-hydroxypropionate dehydrogenase</t>
   </si>
@@ -13617,6 +13617,325 @@
   </si>
   <si>
     <t>s_4377 -&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicotianamine [extracellular]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecNicotianamine.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecL_PAC.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecPsilocybin.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vanillin-β-glucoside</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dehydroshikimate dehydratase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_0211 + 2.22124e-06 prot_Q86ZM4 -&gt; s_4211 + s_0803</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3DSD (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Podospora anserina</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q86ZM4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.1.118</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000404 mmol/gDCW/h</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADH6, BGL1X</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regulatory control circuits for stabilizing long-term anabolic product formation in yeast</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>O-methyltransferase</t>
+  </si>
+  <si>
+    <t>s_4211 + s_0322 + 6.03117e-05 prot_P21964 -&gt; s_1487 + s_4378</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OMT (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Homo sapiens</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P21964</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.1.341</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>aromatic carboxylic acid reductase</t>
+  </si>
+  <si>
+    <t>s_4211 + s_1212 + s_0434 + s_0794 + 6.18368e-05 prot_Q6RKB1 -&gt; s_4379 + s_0423 + s_0633 + s_1207</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ACAR (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nocardia iowensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q6RKB1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.1.30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>aromatic carboxylic acid reductase</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4378 + s_1203 + s_0794 + 6.18368e-05 prot_Q6RKB1 -&gt; s_1198 + s_0803 + s_4380</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q6RKB1</t>
+  </si>
+  <si>
+    <t>s_4379 + s_0322 + 6.03117e-05 prot_P21964 -&gt; s_1487 + s_4380</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.1.341</t>
+  </si>
+  <si>
+    <t>UDP-glycosyltransferase</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_1543 + s_4380 + prot_Q9LVR1 -&gt; s_1538 + s_0794 + s_4381</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UGT (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Arabidopsis thaliana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q9LVR1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw_prot_Q86ZM4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>41.685 prot_pool  -&gt; prot_Q86ZM4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw_prot_P21964</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.037 prot_pool  -&gt; prot_P21964</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw_prot_Q6RKB1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>128.346 prot_pool  -&gt; prot_Q6RKB1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw_prot_Q9LVR1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>52.992 prot_pool  -&gt; prot_Q9LVR1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vanillin-β-glucoside transport</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4381 -&gt; s_4382</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vanillin-β-glucoside exchange</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4382 -&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4378[c]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanillate [cytoplasm]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4379[c]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocatechuic aldehyde [cytoplasm]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4380[c]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vanillin  [cytoplasm]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4381[c]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vanillin-β-glucoside  [cytoplasm]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4382[e]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vanillin-β-glucoside  [extracellular]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4382[e]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecVanillin_β_glucoside</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -13903,6 +14222,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -13923,9 +14245,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14629,15 +14948,15 @@
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>2120</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:13" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -14673,7 +14992,7 @@
       <c r="E5" s="38">
         <v>0.62227866768414009</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="48">
         <v>20909</v>
       </c>
       <c r="H5" s="37"/>
@@ -14697,7 +15016,7 @@
       <c r="E6" s="38">
         <v>0.76588143714971091</v>
       </c>
-      <c r="F6" s="48"/>
+      <c r="F6" s="49"/>
       <c r="H6" s="37"/>
       <c r="J6" s="38"/>
       <c r="K6" s="38"/>
@@ -14719,7 +15038,7 @@
       <c r="E7" s="38">
         <v>0.38294071857485545</v>
       </c>
-      <c r="F7" s="48"/>
+      <c r="F7" s="49"/>
       <c r="H7" s="37"/>
       <c r="J7" s="38"/>
       <c r="K7" s="38"/>
@@ -14741,7 +15060,7 @@
       <c r="E8" s="38">
         <v>0.76588143714971091</v>
       </c>
-      <c r="F8" s="48"/>
+      <c r="F8" s="49"/>
       <c r="H8" s="37"/>
       <c r="J8" s="38"/>
       <c r="K8" s="38"/>
@@ -14763,7 +15082,7 @@
       <c r="E9" s="38">
         <v>0</v>
       </c>
-      <c r="F9" s="48"/>
+      <c r="F9" s="49"/>
       <c r="H9" s="37"/>
       <c r="J9" s="38"/>
       <c r="K9" s="38"/>
@@ -14785,7 +15104,7 @@
       <c r="E10" s="38">
         <v>0.62227866768414009</v>
       </c>
-      <c r="F10" s="48"/>
+      <c r="F10" s="49"/>
       <c r="H10" s="37"/>
       <c r="J10" s="38"/>
       <c r="K10" s="38"/>
@@ -14807,7 +15126,7 @@
       <c r="E11" s="38">
         <v>0.47867589821856926</v>
       </c>
-      <c r="F11" s="48"/>
+      <c r="F11" s="49"/>
       <c r="H11" s="37"/>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
@@ -14829,7 +15148,7 @@
       <c r="E12" s="38">
         <v>0.43080830839671241</v>
       </c>
-      <c r="F12" s="48"/>
+      <c r="F12" s="49"/>
       <c r="H12" s="37"/>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
@@ -14851,7 +15170,7 @@
       <c r="E13" s="38">
         <v>0.19147035928742773</v>
       </c>
-      <c r="F13" s="48"/>
+      <c r="F13" s="49"/>
       <c r="H13" s="37"/>
       <c r="J13" s="38"/>
       <c r="K13" s="38"/>
@@ -14873,7 +15192,7 @@
       <c r="E14" s="38">
         <v>0.38294071857485545</v>
       </c>
-      <c r="F14" s="48"/>
+      <c r="F14" s="49"/>
       <c r="H14" s="37"/>
       <c r="J14" s="38"/>
       <c r="K14" s="38"/>
@@ -14895,7 +15214,7 @@
       <c r="E15" s="38">
         <v>0.57441107786228329</v>
       </c>
-      <c r="F15" s="48"/>
+      <c r="F15" s="49"/>
       <c r="H15" s="37"/>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
@@ -14917,7 +15236,7 @@
       <c r="E16" s="38">
         <v>0.47867589821856926</v>
       </c>
-      <c r="F16" s="48"/>
+      <c r="F16" s="49"/>
       <c r="H16" s="37"/>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
@@ -14939,7 +15258,7 @@
       <c r="E17" s="38">
         <v>0.23933794910928463</v>
       </c>
-      <c r="F17" s="48"/>
+      <c r="F17" s="49"/>
       <c r="H17" s="37"/>
       <c r="J17" s="38"/>
       <c r="K17" s="38"/>
@@ -14961,7 +15280,7 @@
       <c r="E18" s="38">
         <v>0.52654348804042628</v>
       </c>
-      <c r="F18" s="48"/>
+      <c r="F18" s="49"/>
       <c r="H18" s="37"/>
       <c r="J18" s="38"/>
       <c r="K18" s="38"/>
@@ -14983,7 +15302,7 @@
       <c r="E19" s="38">
         <v>0.14360276946557082</v>
       </c>
-      <c r="F19" s="48"/>
+      <c r="F19" s="49"/>
       <c r="H19" s="37"/>
       <c r="J19" s="38"/>
       <c r="K19" s="38"/>
@@ -15005,7 +15324,7 @@
       <c r="E20" s="38">
         <v>0.81374902697156781</v>
       </c>
-      <c r="F20" s="48"/>
+      <c r="F20" s="49"/>
       <c r="H20" s="37"/>
       <c r="J20" s="38"/>
       <c r="K20" s="38"/>
@@ -15027,7 +15346,7 @@
       <c r="E21" s="38">
         <v>0.43080830839671241</v>
       </c>
-      <c r="F21" s="48"/>
+      <c r="F21" s="49"/>
       <c r="H21" s="37"/>
       <c r="J21" s="38"/>
       <c r="K21" s="38"/>
@@ -15049,7 +15368,7 @@
       <c r="E22" s="38">
         <v>0.19147035928742773</v>
       </c>
-      <c r="F22" s="48"/>
+      <c r="F22" s="49"/>
       <c r="H22" s="37"/>
       <c r="J22" s="38"/>
       <c r="K22" s="38"/>
@@ -15071,7 +15390,7 @@
       <c r="E23" s="38">
         <v>0.19147035928742773</v>
       </c>
-      <c r="F23" s="48"/>
+      <c r="F23" s="49"/>
       <c r="H23" s="37"/>
       <c r="J23" s="38"/>
       <c r="K23" s="38"/>
@@ -15093,7 +15412,7 @@
       <c r="E24" s="38">
         <v>0.38294071857485545</v>
       </c>
-      <c r="F24" s="49"/>
+      <c r="F24" s="50"/>
       <c r="H24" s="37"/>
       <c r="J24" s="38"/>
       <c r="K24" s="38"/>
@@ -15734,10 +16053,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R611"/>
+  <dimension ref="A1:R624"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A592" workbookViewId="0">
-      <selection activeCell="D606" sqref="D606"/>
+    <sheetView topLeftCell="A613" workbookViewId="0">
+      <selection activeCell="C629" sqref="C629"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27054,7 +27373,7 @@
       <c r="C596" s="2" t="s">
         <v>2652</v>
       </c>
-      <c r="D596" s="52" t="s">
+      <c r="D596" s="45" t="s">
         <v>2653</v>
       </c>
       <c r="E596" s="2" t="s">
@@ -27319,7 +27638,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="609" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B609" s="2">
         <v>12</v>
       </c>
@@ -27330,7 +27649,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="610" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B610" s="2">
         <v>13</v>
       </c>
@@ -27341,7 +27660,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="611" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B611" s="2">
         <v>14</v>
       </c>
@@ -27350,6 +27669,306 @@
       </c>
       <c r="D611" s="2" t="s">
         <v>2705</v>
+      </c>
+    </row>
+    <row r="613" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A613" s="2" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B613" s="8">
+        <v>1</v>
+      </c>
+      <c r="C613" s="2" t="s">
+        <v>2711</v>
+      </c>
+      <c r="D613" s="2" t="s">
+        <v>2712</v>
+      </c>
+      <c r="E613" s="2" t="s">
+        <v>2713</v>
+      </c>
+      <c r="F613" s="2" t="s">
+        <v>2714</v>
+      </c>
+      <c r="G613" s="2" t="s">
+        <v>2715</v>
+      </c>
+      <c r="H613" s="8">
+        <v>125.05500000000001</v>
+      </c>
+      <c r="I613" s="2">
+        <v>41.685000000000002</v>
+      </c>
+      <c r="J613" s="2">
+        <v>180</v>
+      </c>
+      <c r="K613" s="8"/>
+      <c r="L613" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="N613" s="2" t="s">
+        <v>2716</v>
+      </c>
+      <c r="O613" s="2" t="s">
+        <v>2717</v>
+      </c>
+      <c r="Q613" s="2" t="s">
+        <v>2718</v>
+      </c>
+      <c r="R613" s="2" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="614" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B614" s="8">
+        <v>2</v>
+      </c>
+      <c r="C614" s="2" t="s">
+        <v>2720</v>
+      </c>
+      <c r="D614" s="2" t="s">
+        <v>2721</v>
+      </c>
+      <c r="E614" s="2" t="s">
+        <v>2722</v>
+      </c>
+      <c r="F614" s="8" t="s">
+        <v>2723</v>
+      </c>
+      <c r="G614" s="2" t="s">
+        <v>2724</v>
+      </c>
+      <c r="H614" s="2">
+        <v>4.6056733333333302</v>
+      </c>
+      <c r="I614" s="2">
+        <v>30.036999999999999</v>
+      </c>
+      <c r="J614" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K614" s="10"/>
+      <c r="L614" s="9"/>
+      <c r="M614" s="8"/>
+    </row>
+    <row r="615" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B615" s="8">
+        <v>3</v>
+      </c>
+      <c r="C615" s="2" t="s">
+        <v>2725</v>
+      </c>
+      <c r="D615" s="2" t="s">
+        <v>2726</v>
+      </c>
+      <c r="E615" s="2" t="s">
+        <v>2727</v>
+      </c>
+      <c r="F615" s="2" t="s">
+        <v>2728</v>
+      </c>
+      <c r="G615" s="2" t="s">
+        <v>2729</v>
+      </c>
+      <c r="H615" s="2">
+        <v>4.4921100000000003</v>
+      </c>
+      <c r="I615" s="2">
+        <v>128.346</v>
+      </c>
+      <c r="J615" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="K615" s="8"/>
+      <c r="L615" s="9"/>
+      <c r="M615" s="8"/>
+    </row>
+    <row r="616" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B616" s="8">
+        <v>4</v>
+      </c>
+      <c r="C616" s="2" t="s">
+        <v>2730</v>
+      </c>
+      <c r="D616" s="2" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E616" s="2" t="s">
+        <v>2727</v>
+      </c>
+      <c r="F616" s="2" t="s">
+        <v>2732</v>
+      </c>
+      <c r="G616" s="2" t="s">
+        <v>2729</v>
+      </c>
+      <c r="H616" s="2">
+        <v>4.4921100000000003</v>
+      </c>
+      <c r="I616" s="2">
+        <v>128.346</v>
+      </c>
+      <c r="J616" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="K616" s="8"/>
+      <c r="L616" s="9"/>
+      <c r="M616" s="8"/>
+    </row>
+    <row r="617" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B617" s="8">
+        <v>5</v>
+      </c>
+      <c r="C617" s="2" t="s">
+        <v>2720</v>
+      </c>
+      <c r="D617" s="2" t="s">
+        <v>2733</v>
+      </c>
+      <c r="E617" s="2" t="s">
+        <v>2722</v>
+      </c>
+      <c r="F617" s="8" t="s">
+        <v>2723</v>
+      </c>
+      <c r="G617" s="2" t="s">
+        <v>2734</v>
+      </c>
+      <c r="H617" s="2">
+        <v>4.6056733333333328</v>
+      </c>
+      <c r="I617" s="2">
+        <v>30.036999999999999</v>
+      </c>
+      <c r="J617" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K617" s="8"/>
+      <c r="L617" s="9"/>
+      <c r="M617" s="8"/>
+    </row>
+    <row r="618" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B618" s="8">
+        <v>6</v>
+      </c>
+      <c r="C618" s="2" t="s">
+        <v>2735</v>
+      </c>
+      <c r="D618" s="2" t="s">
+        <v>2736</v>
+      </c>
+      <c r="E618" s="2" t="s">
+        <v>2737</v>
+      </c>
+      <c r="F618" s="2" t="s">
+        <v>2738</v>
+      </c>
+      <c r="I618" s="2">
+        <v>52.991999999999997</v>
+      </c>
+      <c r="K618" s="8"/>
+      <c r="L618" s="9"/>
+      <c r="M618" s="8"/>
+    </row>
+    <row r="619" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B619" s="8">
+        <v>7</v>
+      </c>
+      <c r="C619" s="2" t="s">
+        <v>2739</v>
+      </c>
+      <c r="D619" s="2" t="s">
+        <v>2740</v>
+      </c>
+      <c r="E619" s="8"/>
+      <c r="I619" s="8"/>
+      <c r="J619" s="8"/>
+      <c r="K619" s="8"/>
+      <c r="L619" s="9"/>
+      <c r="M619" s="8"/>
+    </row>
+    <row r="620" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B620" s="8">
+        <v>8</v>
+      </c>
+      <c r="C620" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="D620" s="2" t="s">
+        <v>2742</v>
+      </c>
+      <c r="E620" s="8"/>
+      <c r="I620" s="8"/>
+      <c r="J620" s="8"/>
+      <c r="K620" s="8"/>
+      <c r="L620" s="9"/>
+      <c r="M620" s="8"/>
+    </row>
+    <row r="621" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B621" s="8">
+        <v>9</v>
+      </c>
+      <c r="C621" s="2" t="s">
+        <v>2743</v>
+      </c>
+      <c r="D621" s="2" t="s">
+        <v>2744</v>
+      </c>
+      <c r="E621" s="8"/>
+      <c r="G621" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I621" s="8"/>
+      <c r="J621" s="8"/>
+      <c r="K621" s="8"/>
+      <c r="L621" s="9"/>
+      <c r="M621" s="8"/>
+    </row>
+    <row r="622" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B622" s="8">
+        <v>10</v>
+      </c>
+      <c r="C622" s="2" t="s">
+        <v>2745</v>
+      </c>
+      <c r="D622" s="2" t="s">
+        <v>2746</v>
+      </c>
+      <c r="E622" s="8"/>
+      <c r="I622" s="8"/>
+      <c r="J622" s="8"/>
+      <c r="K622" s="8"/>
+      <c r="L622" s="9"/>
+      <c r="M622" s="8"/>
+    </row>
+    <row r="623" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B623" s="8">
+        <v>11</v>
+      </c>
+      <c r="C623" s="2" t="s">
+        <v>2747</v>
+      </c>
+      <c r="D623" s="2" t="s">
+        <v>2748</v>
+      </c>
+      <c r="E623" s="8"/>
+      <c r="F623" s="8"/>
+      <c r="G623" s="8"/>
+      <c r="H623" s="8"/>
+      <c r="I623" s="8"/>
+      <c r="J623" s="8"/>
+      <c r="L623" s="9"/>
+      <c r="M623" s="8"/>
+    </row>
+    <row r="624" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B624" s="8">
+        <v>12</v>
+      </c>
+      <c r="C624" s="2" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D624" s="2" t="s">
+        <v>2750</v>
       </c>
     </row>
   </sheetData>
@@ -27365,10 +27984,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
-    <sheetView topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168:B173"/>
+    <sheetView topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28763,6 +29382,46 @@
         <v>2650</v>
       </c>
     </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B174" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B175" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B176" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>2759</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>2760</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28772,10 +29431,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30158,6 +30817,62 @@
       </c>
       <c r="E97" t="s">
         <v>2554</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>2708</v>
+      </c>
+      <c r="E98" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2706</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>2707</v>
+      </c>
+      <c r="E99" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>2761</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>2760</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>2762</v>
+      </c>
+      <c r="E101" t="s">
+        <v>2548</v>
       </c>
     </row>
   </sheetData>
@@ -30187,15 +30902,15 @@
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:9" ht="270.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>2019</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:9" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -30231,7 +30946,7 @@
       <c r="E5" s="36">
         <v>0.65160211522895095</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="48">
         <v>109712</v>
       </c>
       <c r="I5" s="36"/>
@@ -30252,7 +30967,7 @@
       <c r="E6" s="36">
         <v>0.26429726200595238</v>
       </c>
-      <c r="F6" s="48"/>
+      <c r="F6" s="49"/>
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -30271,7 +30986,7 @@
       <c r="E7" s="36">
         <v>0.50125342794232353</v>
       </c>
-      <c r="F7" s="48"/>
+      <c r="F7" s="49"/>
       <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -30290,7 +31005,7 @@
       <c r="E8" s="36">
         <v>0.49213972925246308</v>
       </c>
-      <c r="F8" s="48"/>
+      <c r="F8" s="49"/>
       <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -30309,7 +31024,7 @@
       <c r="E9" s="36">
         <v>5.4682192139162568E-2</v>
       </c>
-      <c r="F9" s="48"/>
+      <c r="F9" s="49"/>
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -30328,7 +31043,7 @@
       <c r="E10" s="36">
         <v>0.43745753711330054</v>
       </c>
-      <c r="F10" s="48"/>
+      <c r="F10" s="49"/>
       <c r="I10" s="36"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -30347,7 +31062,7 @@
       <c r="E11" s="36">
         <v>0.25518356331609193</v>
       </c>
-      <c r="F11" s="48"/>
+      <c r="F11" s="49"/>
       <c r="I11" s="36"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -30366,7 +31081,7 @@
       <c r="E12" s="36">
         <v>0.91136986898604266</v>
       </c>
-      <c r="F12" s="48"/>
+      <c r="F12" s="49"/>
       <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -30385,7 +31100,7 @@
       <c r="E13" s="36">
         <v>0.12759178165804597</v>
       </c>
-      <c r="F13" s="48"/>
+      <c r="F13" s="49"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -30404,7 +31119,7 @@
       <c r="E14" s="36">
         <v>0.44657123580316094</v>
       </c>
-      <c r="F14" s="48"/>
+      <c r="F14" s="49"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -30423,7 +31138,7 @@
       <c r="E15" s="36">
         <v>0.85668767684688019</v>
       </c>
-      <c r="F15" s="48"/>
+      <c r="F15" s="49"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -30442,7 +31157,7 @@
       <c r="E16" s="36">
         <v>0.4192301397335797</v>
       </c>
-      <c r="F16" s="48"/>
+      <c r="F16" s="49"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -30461,7 +31176,7 @@
       <c r="E17" s="36">
         <v>6.3795890829022983E-2</v>
       </c>
-      <c r="F17" s="48"/>
+      <c r="F17" s="49"/>
       <c r="I17" s="36"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -30480,7 +31195,7 @@
       <c r="E18" s="36">
         <v>0.36454794759441711</v>
       </c>
-      <c r="F18" s="48"/>
+      <c r="F18" s="49"/>
       <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -30499,7 +31214,7 @@
       <c r="E19" s="36">
         <v>0.49213972925246308</v>
       </c>
-      <c r="F19" s="48"/>
+      <c r="F19" s="49"/>
       <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -30518,7 +31233,7 @@
       <c r="E20" s="36">
         <v>0.85668767684688019</v>
       </c>
-      <c r="F20" s="48"/>
+      <c r="F20" s="49"/>
       <c r="I20" s="36"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -30537,7 +31252,7 @@
       <c r="E21" s="36">
         <v>0.71086849780911332</v>
       </c>
-      <c r="F21" s="48"/>
+      <c r="F21" s="49"/>
       <c r="I21" s="36"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -30556,7 +31271,7 @@
       <c r="E22" s="36">
         <v>0.18227397379720855</v>
       </c>
-      <c r="F22" s="48"/>
+      <c r="F22" s="49"/>
       <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -30575,7 +31290,7 @@
       <c r="E23" s="36">
         <v>0.53770822270176521</v>
       </c>
-      <c r="F23" s="48"/>
+      <c r="F23" s="49"/>
       <c r="I23" s="36"/>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -30594,7 +31309,7 @@
       <c r="E24" s="36">
         <v>0.555935620081486</v>
       </c>
-      <c r="F24" s="49"/>
+      <c r="F24" s="50"/>
       <c r="I24" s="36"/>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -30639,15 +31354,15 @@
   <sheetData>
     <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:13" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>2073</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:13" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -30680,7 +31395,7 @@
       <c r="E5" s="38">
         <v>0.76631477589467401</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="48">
         <v>54810</v>
       </c>
       <c r="J5" s="37"/>
@@ -30700,7 +31415,7 @@
       <c r="E6" s="38">
         <v>0.18245589902254142</v>
       </c>
-      <c r="F6" s="48"/>
+      <c r="F6" s="49"/>
       <c r="J6" s="37"/>
       <c r="K6" s="38"/>
       <c r="M6" s="38"/>
@@ -30718,7 +31433,7 @@
       <c r="E7" s="38">
         <v>0.47438533745860767</v>
       </c>
-      <c r="F7" s="48"/>
+      <c r="F7" s="49"/>
       <c r="J7" s="37"/>
       <c r="K7" s="38"/>
       <c r="M7" s="38"/>
@@ -30736,7 +31451,7 @@
       <c r="E8" s="38">
         <v>0.76631477589467401</v>
       </c>
-      <c r="F8" s="48"/>
+      <c r="F8" s="49"/>
       <c r="J8" s="37"/>
       <c r="K8" s="38"/>
       <c r="M8" s="38"/>
@@ -30754,7 +31469,7 @@
       <c r="E9" s="38">
         <v>0.16421030912028728</v>
       </c>
-      <c r="F9" s="48"/>
+      <c r="F9" s="49"/>
       <c r="J9" s="37"/>
       <c r="K9" s="38"/>
       <c r="M9" s="38"/>
@@ -30772,7 +31487,7 @@
       <c r="E10" s="38">
         <v>0.2189470788270497</v>
       </c>
-      <c r="F10" s="48"/>
+      <c r="F10" s="49"/>
       <c r="J10" s="37"/>
       <c r="K10" s="38"/>
       <c r="M10" s="38"/>
@@ -30790,7 +31505,7 @@
       <c r="E11" s="38">
         <v>0.36491179804508284</v>
       </c>
-      <c r="F11" s="48"/>
+      <c r="F11" s="49"/>
       <c r="J11" s="37"/>
       <c r="K11" s="38"/>
       <c r="M11" s="38"/>
@@ -30808,7 +31523,7 @@
       <c r="E12" s="38">
         <v>0.78456036579692812</v>
       </c>
-      <c r="F12" s="48"/>
+      <c r="F12" s="49"/>
       <c r="J12" s="37"/>
       <c r="K12" s="38"/>
       <c r="M12" s="38"/>
@@ -30826,7 +31541,7 @@
       <c r="E13" s="38">
         <v>0.127719129315779</v>
       </c>
-      <c r="F13" s="48"/>
+      <c r="F13" s="49"/>
       <c r="J13" s="37"/>
       <c r="K13" s="38"/>
       <c r="M13" s="38"/>
@@ -30844,7 +31559,7 @@
       <c r="E14" s="38">
         <v>0.510876517263116</v>
       </c>
-      <c r="F14" s="48"/>
+      <c r="F14" s="49"/>
       <c r="J14" s="37"/>
       <c r="K14" s="38"/>
       <c r="M14" s="38"/>
@@ -30862,7 +31577,7 @@
       <c r="E15" s="38">
         <v>0.67508682638340323</v>
       </c>
-      <c r="F15" s="48"/>
+      <c r="F15" s="49"/>
       <c r="J15" s="37"/>
       <c r="K15" s="38"/>
       <c r="M15" s="38"/>
@@ -30880,7 +31595,7 @@
       <c r="E16" s="38">
         <v>0.36491179804508284</v>
       </c>
-      <c r="F16" s="48"/>
+      <c r="F16" s="49"/>
       <c r="J16" s="37"/>
       <c r="K16" s="38"/>
       <c r="M16" s="38"/>
@@ -30898,7 +31613,7 @@
       <c r="E17" s="38">
         <v>0.20070148892479556</v>
       </c>
-      <c r="F17" s="48"/>
+      <c r="F17" s="49"/>
       <c r="J17" s="37"/>
       <c r="K17" s="38"/>
       <c r="M17" s="38"/>
@@ -30916,7 +31631,7 @@
       <c r="E18" s="38">
         <v>0.27368384853381211</v>
       </c>
-      <c r="F18" s="48"/>
+      <c r="F18" s="49"/>
       <c r="J18" s="37"/>
       <c r="K18" s="38"/>
       <c r="M18" s="38"/>
@@ -30934,7 +31649,7 @@
       <c r="E19" s="38">
         <v>0.40140297784959111</v>
       </c>
-      <c r="F19" s="48"/>
+      <c r="F19" s="49"/>
       <c r="J19" s="37"/>
       <c r="K19" s="38"/>
       <c r="M19" s="38"/>
@@ -30952,7 +31667,7 @@
       <c r="E20" s="38">
         <v>0.67508682638340323</v>
       </c>
-      <c r="F20" s="48"/>
+      <c r="F20" s="49"/>
       <c r="J20" s="37"/>
       <c r="K20" s="38"/>
       <c r="M20" s="38"/>
@@ -30970,7 +31685,7 @@
       <c r="E21" s="38">
         <v>0.72982359609016567</v>
       </c>
-      <c r="F21" s="48"/>
+      <c r="F21" s="49"/>
       <c r="J21" s="37"/>
       <c r="K21" s="38"/>
       <c r="M21" s="38"/>
@@ -30988,7 +31703,7 @@
       <c r="E22" s="38">
         <v>0.2189470788270497</v>
       </c>
-      <c r="F22" s="48"/>
+      <c r="F22" s="49"/>
       <c r="J22" s="37"/>
       <c r="K22" s="38"/>
       <c r="M22" s="38"/>
@@ -31006,7 +31721,7 @@
       <c r="E23" s="38">
         <v>0.63859564657889489</v>
       </c>
-      <c r="F23" s="48"/>
+      <c r="F23" s="49"/>
       <c r="J23" s="37"/>
       <c r="K23" s="38"/>
       <c r="M23" s="38"/>
@@ -31024,7 +31739,7 @@
       <c r="E24" s="38">
         <v>0.56561328696987834</v>
       </c>
-      <c r="F24" s="49"/>
+      <c r="F24" s="50"/>
       <c r="J24" s="37"/>
       <c r="K24" s="38"/>
       <c r="M24" s="38"/>
@@ -31070,26 +31785,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>2094</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="2:11" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>2095</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:11" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -31122,7 +31837,7 @@
       <c r="E5" s="36">
         <v>1.1532327559965052</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="48">
         <v>62512</v>
       </c>
       <c r="I5" s="36"/>
@@ -31142,7 +31857,7 @@
       <c r="E6" s="36">
         <v>0.19220545933275085</v>
       </c>
-      <c r="F6" s="48"/>
+      <c r="F6" s="49"/>
       <c r="I6" s="36"/>
       <c r="J6" s="38"/>
       <c r="K6" s="37"/>
@@ -31160,7 +31875,7 @@
       <c r="E7" s="36">
         <v>0.32034243222125147</v>
       </c>
-      <c r="F7" s="48"/>
+      <c r="F7" s="49"/>
       <c r="I7" s="36"/>
       <c r="J7" s="38"/>
       <c r="K7" s="37"/>
@@ -31178,7 +31893,7 @@
       <c r="E8" s="36">
         <v>0.4805136483318771</v>
       </c>
-      <c r="F8" s="48"/>
+      <c r="F8" s="49"/>
       <c r="I8" s="36"/>
       <c r="J8" s="38"/>
       <c r="K8" s="37"/>
@@ -31196,7 +31911,7 @@
       <c r="E9" s="36">
         <v>9.6102729666375425E-2</v>
       </c>
-      <c r="F9" s="48"/>
+      <c r="F9" s="49"/>
       <c r="I9" s="36"/>
       <c r="J9" s="38"/>
       <c r="K9" s="37"/>
@@ -31214,7 +31929,7 @@
       <c r="E10" s="36">
         <v>0.3844109186655017</v>
       </c>
-      <c r="F10" s="48"/>
+      <c r="F10" s="49"/>
       <c r="I10" s="36"/>
       <c r="J10" s="38"/>
       <c r="K10" s="37"/>
@@ -31232,7 +31947,7 @@
       <c r="E11" s="36">
         <v>0.12813697288850059</v>
       </c>
-      <c r="F11" s="48"/>
+      <c r="F11" s="49"/>
       <c r="I11" s="36"/>
       <c r="J11" s="38"/>
       <c r="K11" s="37"/>
@@ -31250,7 +31965,7 @@
       <c r="E12" s="36">
         <v>0.64068486444250294</v>
       </c>
-      <c r="F12" s="48"/>
+      <c r="F12" s="49"/>
       <c r="I12" s="36"/>
       <c r="J12" s="38"/>
       <c r="K12" s="37"/>
@@ -31268,7 +31983,7 @@
       <c r="E13" s="36">
         <v>0.60865062122037772</v>
       </c>
-      <c r="F13" s="48"/>
+      <c r="F13" s="49"/>
       <c r="I13" s="36"/>
       <c r="J13" s="38"/>
       <c r="K13" s="37"/>
@@ -31286,7 +32001,7 @@
       <c r="E14" s="36">
         <v>0</v>
       </c>
-      <c r="F14" s="48"/>
+      <c r="F14" s="49"/>
       <c r="I14" s="36"/>
       <c r="J14" s="38"/>
       <c r="K14" s="37"/>
@@ -31304,7 +32019,7 @@
       <c r="E15" s="36">
         <v>1.1532327559965052</v>
       </c>
-      <c r="F15" s="48"/>
+      <c r="F15" s="49"/>
       <c r="I15" s="36"/>
       <c r="J15" s="38"/>
       <c r="K15" s="37"/>
@@ -31322,7 +32037,7 @@
       <c r="E16" s="36">
         <v>0.70475335088675317</v>
       </c>
-      <c r="F16" s="48"/>
+      <c r="F16" s="49"/>
       <c r="I16" s="36"/>
       <c r="J16" s="38"/>
       <c r="K16" s="37"/>
@@ -31340,7 +32055,7 @@
       <c r="E17" s="36">
         <v>0.16017121611062574</v>
       </c>
-      <c r="F17" s="48"/>
+      <c r="F17" s="49"/>
       <c r="I17" s="36"/>
       <c r="J17" s="38"/>
       <c r="K17" s="37"/>
@@ -31358,7 +32073,7 @@
       <c r="E18" s="36">
         <v>0.4805136483318771</v>
       </c>
-      <c r="F18" s="48"/>
+      <c r="F18" s="49"/>
       <c r="I18" s="36"/>
       <c r="J18" s="38"/>
       <c r="K18" s="37"/>
@@ -31376,7 +32091,7 @@
       <c r="E19" s="36">
         <v>0.44847940510975204</v>
       </c>
-      <c r="F19" s="48"/>
+      <c r="F19" s="49"/>
       <c r="I19" s="36"/>
       <c r="J19" s="38"/>
       <c r="K19" s="37"/>
@@ -31394,7 +32109,7 @@
       <c r="E20" s="36">
         <v>0.51254789155400238</v>
       </c>
-      <c r="F20" s="48"/>
+      <c r="F20" s="49"/>
       <c r="I20" s="36"/>
       <c r="J20" s="38"/>
       <c r="K20" s="37"/>
@@ -31412,7 +32127,7 @@
       <c r="E21" s="36">
         <v>0.51254789155400238</v>
       </c>
-      <c r="F21" s="48"/>
+      <c r="F21" s="49"/>
       <c r="I21" s="36"/>
       <c r="J21" s="38"/>
       <c r="K21" s="37"/>
@@ -31430,7 +32145,7 @@
       <c r="E22" s="36">
         <v>9.6102729666375425E-2</v>
       </c>
-      <c r="F22" s="48"/>
+      <c r="F22" s="49"/>
       <c r="I22" s="36"/>
       <c r="J22" s="38"/>
       <c r="K22" s="37"/>
@@ -31448,7 +32163,7 @@
       <c r="E23" s="36">
         <v>0.19220545933275085</v>
       </c>
-      <c r="F23" s="48"/>
+      <c r="F23" s="49"/>
       <c r="I23" s="36"/>
       <c r="J23" s="38"/>
       <c r="K23" s="37"/>
@@ -31466,7 +32181,7 @@
       <c r="E24" s="36">
         <v>0.99306153988587953</v>
       </c>
-      <c r="F24" s="49"/>
+      <c r="F24" s="50"/>
       <c r="I24" s="36"/>
       <c r="J24" s="38"/>
       <c r="K24" s="37"/>

--- a/result_ecYeast/Data_Allchemicals.xlsx
+++ b/result_ecYeast/Data_Allchemicals.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="3HP_Rxn " sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3617" uniqueCount="2763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="2807">
   <si>
     <t>3-hydroxypropionate dehydrogenase</t>
   </si>
@@ -13935,7 +13935,272 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>ecVanillin_β_glucoside</t>
+    <t>ecVanillin_β_glucoside.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4386[e]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>betaxanthin [extracellular]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecBetaxanthin.mat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Betaxanthin</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_1275 + 2 s_1051 + prot_I3PFJ5 -&gt; 2 s_4291</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CYP76AD5 (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Beta vulgaris</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>I3PFJ5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.14.18.1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0028 mmol/gDCW/h</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>YEP</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARO4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bidirectional titration of yeast gene expression using a pooled CRISPR guide RNA approach</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>L-Dopa dioxygenase</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4291 + s_1275 + 0.00920678 prot_B6F0W8 -&gt; s_4383 + s_0794</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DOD (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mirabilis jalapa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>B6F0W8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.13.11.29</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stizolobium hassjoo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>spontaneous reaction</t>
+  </si>
+  <si>
+    <t>s_4383 + s_0794 -&gt; s_4384 + s_0803</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4384 + s_1051 -&gt; s_4385 + s_0803</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Betaxanthin transport</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4385 -&gt; s_4386</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Betaxanthin exchange</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4386 -&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">s_0551 + s_0803 + s_1360 + 0.0033548 prot_P32449ly  -&gt; s_0349 + s_1322 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ARO4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>K229L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S. cerevisiae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.212 prot_pool  -&gt; prot_I3PFJ5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw_prot_B6F0W8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.171 prot_pool  -&gt; prot_B6F0W8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw_prot_P32449ly</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carbon source</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>glucose</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>glucose</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>raffinose</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4383[c]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-(L-Alanin-3-yl)-2-hydroxy-cis,cis-muconate 6-semialdehyde [cytoplasm]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4384[c]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>betalamic acid [cytoplasm]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4385[c]</t>
+  </si>
+  <si>
+    <t>betaxanthin [cytoplasm]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_4386[e]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>betaxanthin [extracellular]</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -16053,10 +16318,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R624"/>
+  <dimension ref="A1:T635"/>
   <sheetViews>
-    <sheetView topLeftCell="A613" workbookViewId="0">
-      <selection activeCell="C629" sqref="C629"/>
+    <sheetView topLeftCell="A615" workbookViewId="0">
+      <selection activeCell="P632" sqref="P632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16072,12 +16337,12 @@
     <col min="12" max="12" width="7.5" style="20" customWidth="1"/>
     <col min="13" max="13" width="14" style="2" customWidth="1"/>
     <col min="14" max="14" width="15.875" style="2" customWidth="1"/>
-    <col min="15" max="16" width="8.75" style="2"/>
-    <col min="17" max="17" width="8.375" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="8.75" style="2"/>
+    <col min="15" max="17" width="8.75" style="2"/>
+    <col min="18" max="18" width="8.375" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -16124,16 +16389,19 @@
         <v>80</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>2795</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1457</v>
       </c>
@@ -16176,14 +16444,17 @@
       <c r="O2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -16209,7 +16480,7 @@
         <v>49.021999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -16220,7 +16491,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -16231,7 +16502,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -16242,7 +16513,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>6</v>
       </c>
@@ -16253,7 +16524,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>96</v>
       </c>
@@ -16288,16 +16559,19 @@
         <v>98</v>
       </c>
       <c r="P9" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="R9" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="S9" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>106</v>
       </c>
@@ -16310,11 +16584,11 @@
       <c r="I10" s="8">
         <v>130.09800000000001</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>569</v>
       </c>
@@ -16333,11 +16607,11 @@
       <c r="J11" s="8">
         <v>30.5</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>110</v>
       </c>
@@ -16360,7 +16634,7 @@
         <v>49.304000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>1</v>
       </c>
@@ -16371,7 +16645,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="8"/>
@@ -16385,7 +16659,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>126</v>
       </c>
@@ -16429,14 +16703,17 @@
       <c r="O15" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="P15" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="R15" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="S15" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B16" s="8">
         <v>2</v>
       </c>
@@ -16467,7 +16744,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B17" s="8">
         <v>3</v>
       </c>
@@ -16499,7 +16776,7 @@
       <c r="L17" s="9"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B18" s="8">
         <v>4</v>
       </c>
@@ -16530,11 +16807,11 @@
       <c r="K18" s="8"/>
       <c r="L18" s="9"/>
       <c r="M18" s="8"/>
-      <c r="R18" s="2" t="s">
+      <c r="S18" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B19" s="8">
         <v>5</v>
       </c>
@@ -16551,7 +16828,7 @@
       <c r="L19" s="9"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B20" s="8">
         <v>6</v>
       </c>
@@ -16568,7 +16845,7 @@
       <c r="L20" s="9"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B21" s="8">
         <v>7</v>
       </c>
@@ -16588,7 +16865,7 @@
       <c r="L21" s="9"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B22" s="8">
         <v>8</v>
       </c>
@@ -16605,7 +16882,7 @@
       <c r="L22" s="9"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B23" s="8">
         <v>9</v>
       </c>
@@ -16624,7 +16901,7 @@
       <c r="L23" s="9"/>
       <c r="M23" s="8"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B24" s="8">
         <v>10</v>
       </c>
@@ -16635,7 +16912,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>172</v>
       </c>
@@ -16675,11 +16952,14 @@
       <c r="O26" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="R26" s="2" t="s">
+      <c r="P26" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="S26" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B27" s="8">
         <v>2</v>
       </c>
@@ -16708,7 +16988,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B28" s="8">
         <v>3</v>
       </c>
@@ -16734,7 +17014,7 @@
         <v>42.84</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B29" s="8">
         <v>4</v>
       </c>
@@ -16745,7 +17025,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B30" s="8">
         <v>5</v>
       </c>
@@ -16756,7 +17036,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B31" s="8">
         <v>6</v>
       </c>
@@ -16767,7 +17047,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B32" s="8">
         <v>7</v>
       </c>
@@ -16778,7 +17058,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B33" s="8">
         <v>8</v>
       </c>
@@ -16789,7 +17069,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>286</v>
       </c>
@@ -16832,11 +17112,14 @@
       <c r="O35" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="R35" s="11" t="s">
+      <c r="P35" s="2" t="s">
+        <v>2797</v>
+      </c>
+      <c r="S35" s="11" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B36" s="8">
         <v>2</v>
       </c>
@@ -16868,7 +17151,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B37" s="8">
         <v>3</v>
       </c>
@@ -16899,11 +17182,11 @@
       <c r="N37" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="R37" s="2" t="s">
+      <c r="S37" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B38" s="8">
         <v>4</v>
       </c>
@@ -16929,7 +17212,7 @@
         <v>58.93</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B39" s="8">
         <v>5</v>
       </c>
@@ -16958,7 +17241,7 @@
         <v>8.5000000000000006E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B40" s="8">
         <v>6</v>
       </c>
@@ -16987,7 +17270,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B41" s="8">
         <v>7</v>
       </c>
@@ -17013,7 +17296,7 @@
         <v>42.673000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B42" s="8">
         <v>8</v>
       </c>
@@ -17042,7 +17325,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B43" s="8">
         <v>9</v>
       </c>
@@ -17071,7 +17354,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B44" s="8">
         <v>10</v>
       </c>
@@ -17100,7 +17383,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B45" s="8">
         <v>11</v>
       </c>
@@ -17111,7 +17394,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B46" s="8">
         <v>12</v>
       </c>
@@ -17122,7 +17405,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B47" s="8">
         <v>13</v>
       </c>
@@ -17133,7 +17416,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B48" s="8">
         <v>14</v>
       </c>
@@ -17144,7 +17427,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B49" s="8">
         <v>15</v>
       </c>
@@ -17155,7 +17438,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B50" s="8">
         <v>16</v>
       </c>
@@ -17166,7 +17449,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B51" s="8">
         <v>17</v>
       </c>
@@ -17177,7 +17460,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B52" s="8">
         <v>18</v>
       </c>
@@ -17188,7 +17471,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B53" s="8">
         <v>19</v>
       </c>
@@ -17199,7 +17482,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B54" s="8">
         <v>20</v>
       </c>
@@ -17210,7 +17493,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B55" s="8">
         <v>21</v>
       </c>
@@ -17221,7 +17504,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B56" s="8">
         <v>22</v>
       </c>
@@ -17232,7 +17515,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B57" s="8">
         <v>23</v>
       </c>
@@ -17243,7 +17526,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B58" s="8">
         <v>24</v>
       </c>
@@ -17254,7 +17537,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B59" s="8">
         <v>25</v>
       </c>
@@ -17265,7 +17548,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
         <v>929</v>
       </c>
@@ -17308,11 +17591,14 @@
       <c r="O61" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="R61" s="15" t="s">
+      <c r="P61" s="2" t="s">
+        <v>2797</v>
+      </c>
+      <c r="S61" s="15" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="13">
         <v>2</v>
       </c>
@@ -17324,9 +17610,9 @@
       </c>
       <c r="K62" s="14"/>
       <c r="L62" s="21"/>
-      <c r="R62" s="15"/>
-    </row>
-    <row r="63" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S62" s="15"/>
+    </row>
+    <row r="63" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="13">
         <v>3</v>
       </c>
@@ -17338,7 +17624,7 @@
       </c>
       <c r="L63" s="21"/>
     </row>
-    <row r="64" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="13">
         <v>4</v>
       </c>
@@ -17350,10 +17636,10 @@
       </c>
       <c r="L64" s="21"/>
     </row>
-    <row r="65" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="L65" s="21"/>
     </row>
-    <row r="66" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
         <v>338</v>
       </c>
@@ -17390,14 +17676,17 @@
       <c r="O66" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="Q66" s="12" t="s">
+      <c r="P66" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="R66" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="R66" s="12" t="s">
+      <c r="S66" s="12" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16"/>
       <c r="B67" s="13">
         <v>2</v>
@@ -17428,7 +17717,7 @@
       </c>
       <c r="L67" s="21"/>
     </row>
-    <row r="68" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16"/>
       <c r="B68" s="13">
         <v>3</v>
@@ -17459,7 +17748,7 @@
       </c>
       <c r="L68" s="21"/>
     </row>
-    <row r="69" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16"/>
       <c r="B69" s="13">
         <v>4</v>
@@ -17490,7 +17779,7 @@
       </c>
       <c r="L69" s="21"/>
     </row>
-    <row r="70" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16"/>
       <c r="B70" s="13">
         <v>5</v>
@@ -17503,7 +17792,7 @@
       </c>
       <c r="L70" s="21"/>
     </row>
-    <row r="71" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16"/>
       <c r="B71" s="13">
         <v>6</v>
@@ -17516,7 +17805,7 @@
       </c>
       <c r="L71" s="21"/>
     </row>
-    <row r="72" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="16"/>
       <c r="B72" s="13">
         <v>7</v>
@@ -17529,7 +17818,7 @@
       </c>
       <c r="L72" s="21"/>
     </row>
-    <row r="73" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16"/>
       <c r="B73" s="13">
         <v>8</v>
@@ -17542,7 +17831,7 @@
       </c>
       <c r="L73" s="21"/>
     </row>
-    <row r="74" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16"/>
       <c r="B74" s="13">
         <v>9</v>
@@ -17555,7 +17844,7 @@
       </c>
       <c r="L74" s="21"/>
     </row>
-    <row r="75" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16"/>
       <c r="B75" s="13">
         <v>10</v>
@@ -17568,10 +17857,10 @@
       </c>
       <c r="L75" s="21"/>
     </row>
-    <row r="76" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="L76" s="21"/>
     </row>
-    <row r="77" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>406</v>
       </c>
@@ -17608,11 +17897,14 @@
       <c r="O77" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="R77" s="12" t="s">
+      <c r="P77" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="S77" s="12" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="13">
         <v>2</v>
       </c>
@@ -17639,7 +17931,7 @@
       </c>
       <c r="L78" s="21"/>
     </row>
-    <row r="79" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>370</v>
       </c>
@@ -17659,11 +17951,11 @@
         <v>115.691</v>
       </c>
       <c r="L79" s="21"/>
-      <c r="P79" s="12" t="s">
+      <c r="Q79" s="12" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>374</v>
       </c>
@@ -17683,11 +17975,11 @@
         <v>115.624</v>
       </c>
       <c r="L80" s="21"/>
-      <c r="P80" s="12" t="s">
+      <c r="Q80" s="12" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="81" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>409</v>
       </c>
@@ -17707,11 +17999,11 @@
         <v>51.719299999999997</v>
       </c>
       <c r="L81" s="21"/>
-      <c r="P81" s="12" t="s">
+      <c r="Q81" s="12" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="82" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>3</v>
       </c>
@@ -17723,7 +18015,7 @@
       </c>
       <c r="L82" s="21"/>
     </row>
-    <row r="83" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>4</v>
       </c>
@@ -17735,7 +18027,7 @@
       </c>
       <c r="L83" s="21"/>
     </row>
-    <row r="84" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="12">
         <v>5</v>
       </c>
@@ -17747,7 +18039,7 @@
       </c>
       <c r="L84" s="21"/>
     </row>
-    <row r="85" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="12">
         <v>6</v>
       </c>
@@ -17759,13 +18051,13 @@
       </c>
       <c r="L85" s="21"/>
     </row>
-    <row r="86" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D86" s="12" t="s">
         <v>387</v>
       </c>
       <c r="L86" s="21"/>
     </row>
-    <row r="87" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
         <v>930</v>
       </c>
@@ -17808,11 +18100,14 @@
       <c r="O87" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="R87" s="15" t="s">
+      <c r="P87" s="2" t="s">
+        <v>2797</v>
+      </c>
+      <c r="S87" s="15" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="88" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="12">
         <v>2</v>
       </c>
@@ -17848,7 +18143,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="89" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="12">
         <v>3</v>
       </c>
@@ -17878,7 +18173,7 @@
       </c>
       <c r="L89" s="21"/>
     </row>
-    <row r="90" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="12">
         <v>4</v>
       </c>
@@ -17908,7 +18203,7 @@
       </c>
       <c r="L90" s="21"/>
     </row>
-    <row r="91" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="12">
         <v>5</v>
       </c>
@@ -17938,7 +18233,7 @@
       </c>
       <c r="L91" s="21"/>
     </row>
-    <row r="92" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>370</v>
       </c>
@@ -17958,11 +18253,11 @@
         <v>115.691</v>
       </c>
       <c r="L92" s="21"/>
-      <c r="P92" s="12" t="s">
+      <c r="Q92" s="12" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="93" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="12">
         <v>6</v>
       </c>
@@ -17974,7 +18269,7 @@
       </c>
       <c r="L93" s="21"/>
     </row>
-    <row r="94" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="12">
         <v>7</v>
       </c>
@@ -17986,7 +18281,7 @@
       </c>
       <c r="L94" s="21"/>
     </row>
-    <row r="95" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="12">
         <v>8</v>
       </c>
@@ -17998,7 +18293,7 @@
       </c>
       <c r="L95" s="21"/>
     </row>
-    <row r="96" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="12">
         <v>9</v>
       </c>
@@ -18010,7 +18305,7 @@
       </c>
       <c r="L96" s="21"/>
     </row>
-    <row r="97" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="12">
         <v>10</v>
       </c>
@@ -18022,18 +18317,21 @@
       </c>
       <c r="L97" s="21"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>457</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="R99" s="2" t="s">
+      <c r="P99" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="S99" s="2" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>459</v>
       </c>
@@ -18055,11 +18353,11 @@
       <c r="N100" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="P100" s="2" t="s">
+      <c r="Q100" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B101" s="2">
         <v>1</v>
       </c>
@@ -18088,7 +18386,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B102" s="2">
         <v>2</v>
       </c>
@@ -18117,7 +18415,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B103" s="2">
         <v>3</v>
       </c>
@@ -18128,7 +18426,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B104" s="2">
         <v>4</v>
       </c>
@@ -18139,7 +18437,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B105" s="2">
         <v>5</v>
       </c>
@@ -18150,7 +18448,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B106" s="2">
         <v>6</v>
       </c>
@@ -18161,7 +18459,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B107" s="2">
         <v>7</v>
       </c>
@@ -18172,7 +18470,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B108" s="2">
         <v>8</v>
       </c>
@@ -18183,7 +18481,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>585</v>
       </c>
@@ -18226,14 +18524,17 @@
       <c r="O110" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="Q110" s="2" t="s">
+      <c r="P110" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="R110" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="R110" s="2" t="s">
+      <c r="S110" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B111" s="2">
         <v>2</v>
       </c>
@@ -18262,7 +18563,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B112" s="2" t="s">
         <v>586</v>
       </c>
@@ -18278,11 +18579,11 @@
       <c r="I112" s="2">
         <v>174.75299999999999</v>
       </c>
-      <c r="P112" s="2" t="s">
+      <c r="Q112" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B113" s="2">
         <v>3</v>
       </c>
@@ -18311,7 +18612,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B114" s="2">
         <v>4</v>
       </c>
@@ -18322,7 +18623,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B115" s="2">
         <v>5</v>
       </c>
@@ -18333,7 +18634,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B116" s="2">
         <v>6</v>
       </c>
@@ -18344,7 +18645,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B117" s="2">
         <v>7</v>
       </c>
@@ -18355,7 +18656,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B118" s="2">
         <v>8</v>
       </c>
@@ -18366,7 +18667,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B119" s="2">
         <v>9</v>
       </c>
@@ -18377,10 +18678,10 @@
         <v>592</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I120" s="12"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>1458</v>
       </c>
@@ -18423,14 +18724,17 @@
       <c r="O121" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q121" s="2" t="s">
+      <c r="P121" s="2" t="s">
+        <v>2797</v>
+      </c>
+      <c r="R121" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="R121" s="2" t="s">
+      <c r="S121" s="2" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B122" s="2">
         <v>2</v>
       </c>
@@ -18459,7 +18763,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B123" s="2">
         <v>3</v>
       </c>
@@ -18470,7 +18774,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B124" s="2">
         <v>4</v>
       </c>
@@ -18481,7 +18785,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B125" s="2">
         <v>5</v>
       </c>
@@ -18492,7 +18796,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B126" s="2">
         <v>6</v>
       </c>
@@ -18503,7 +18807,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>374</v>
       </c>
@@ -18516,11 +18820,11 @@
       <c r="H127" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="P127" s="2" t="s">
+      <c r="Q127" s="2" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>1080</v>
       </c>
@@ -18533,11 +18837,11 @@
       <c r="H128" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="P128" s="2" t="s">
+      <c r="Q128" s="2" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>554</v>
       </c>
@@ -18550,11 +18854,11 @@
       <c r="H129" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="P129" s="2" t="s">
+      <c r="Q129" s="2" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>409</v>
       </c>
@@ -18567,11 +18871,11 @@
       <c r="H130" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="P130" s="2" t="s">
+      <c r="Q130" s="2" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>1459</v>
       </c>
@@ -18614,14 +18918,17 @@
       <c r="O132" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="Q132" s="2" t="s">
+      <c r="P132" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="R132" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="R132" s="2" t="s">
+      <c r="S132" s="2" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B133" s="2" t="s">
         <v>103</v>
       </c>
@@ -18640,11 +18947,11 @@
       <c r="J133" s="8">
         <v>33.4099</v>
       </c>
-      <c r="P133" s="2" t="s">
+      <c r="Q133" s="2" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B134" s="2" t="s">
         <v>106</v>
       </c>
@@ -18663,11 +18970,11 @@
       <c r="J134" s="2">
         <v>33.427300000000002</v>
       </c>
-      <c r="P134" s="2" t="s">
+      <c r="Q134" s="2" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B135" s="2">
         <v>2</v>
       </c>
@@ -18679,7 +18986,7 @@
       </c>
       <c r="I135" s="8"/>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>600</v>
       </c>
@@ -18722,14 +19029,17 @@
       <c r="O137" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="Q137" s="2" t="s">
+      <c r="P137" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="R137" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="R137" s="11" t="s">
+      <c r="S137" s="11" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B138" s="2">
         <v>2</v>
       </c>
@@ -18755,7 +19065,7 @@
         <v>51.56</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B139" s="2" t="s">
         <v>609</v>
       </c>
@@ -18784,7 +19094,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B140" s="2">
         <v>3</v>
       </c>
@@ -18795,7 +19105,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B141" s="2">
         <v>4</v>
       </c>
@@ -18806,7 +19116,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>624</v>
       </c>
@@ -18849,11 +19159,14 @@
       <c r="O143" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="R143" s="2" t="s">
+      <c r="P143" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="S143" s="2" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B144" s="2">
         <v>12</v>
       </c>
@@ -18864,7 +19177,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B145" s="2">
         <v>13</v>
       </c>
@@ -18875,7 +19188,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B146" s="2">
         <v>14</v>
       </c>
@@ -18886,7 +19199,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>666</v>
       </c>
@@ -18915,16 +19228,19 @@
         <v>647</v>
       </c>
       <c r="P148" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="Q148" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="Q148" s="2" t="s">
+      <c r="R148" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="R148" s="2" t="s">
+      <c r="S148" s="2" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>679</v>
       </c>
@@ -18937,11 +19253,11 @@
       <c r="H149" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="P149" s="2" t="s">
+      <c r="Q149" s="2" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B150" s="2" t="s">
         <v>682</v>
       </c>
@@ -18954,11 +19270,11 @@
       <c r="H150" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="P150" s="2" t="s">
+      <c r="Q150" s="2" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B151" s="2" t="s">
         <v>660</v>
       </c>
@@ -18971,11 +19287,11 @@
       <c r="H151" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="P151" s="2" t="s">
+      <c r="Q151" s="2" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B152" s="2" t="s">
         <v>685</v>
       </c>
@@ -18988,11 +19304,11 @@
       <c r="H152" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="P152" s="2" t="s">
+      <c r="Q152" s="2" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B153" s="2" t="s">
         <v>686</v>
       </c>
@@ -19005,11 +19321,11 @@
       <c r="H153" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="P153" s="2" t="s">
+      <c r="Q153" s="2" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B154" s="2" t="s">
         <v>689</v>
       </c>
@@ -19022,11 +19338,11 @@
       <c r="H154" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="P154" s="2" t="s">
+      <c r="Q154" s="2" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B155" s="2" t="s">
         <v>690</v>
       </c>
@@ -19039,11 +19355,11 @@
       <c r="H155" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="P155" s="2" t="s">
+      <c r="Q155" s="2" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B156" s="2" t="s">
         <v>693</v>
       </c>
@@ -19056,11 +19372,11 @@
       <c r="H156" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="P156" s="2" t="s">
+      <c r="Q156" s="2" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B157" s="2" t="s">
         <v>694</v>
       </c>
@@ -19073,11 +19389,11 @@
       <c r="H157" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="P157" s="2" t="s">
+      <c r="Q157" s="2" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>704</v>
       </c>
@@ -19106,13 +19422,16 @@
         <v>706</v>
       </c>
       <c r="P159" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="Q159" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="R159" s="2" t="s">
+      <c r="S159" s="2" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B160" s="2" t="s">
         <v>699</v>
       </c>
@@ -19125,11 +19444,11 @@
       <c r="H160" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="P160" s="2" t="s">
+      <c r="Q160" s="2" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>708</v>
       </c>
@@ -19169,14 +19488,17 @@
       <c r="O162" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="Q162" s="2" t="s">
+      <c r="P162" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="R162" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="R162" s="2" t="s">
+      <c r="S162" s="2" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B163" s="8">
         <v>2</v>
       </c>
@@ -19202,7 +19524,7 @@
         <v>57.792000000000002</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B164" s="2">
         <v>3</v>
       </c>
@@ -19228,7 +19550,7 @@
         <v>23.332000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B165" s="8">
         <v>4</v>
       </c>
@@ -19254,7 +19576,7 @@
         <v>43.116</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B166" s="8">
         <v>5</v>
       </c>
@@ -19280,7 +19602,7 @@
         <v>61.311</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B167" s="13">
         <v>6</v>
       </c>
@@ -19306,7 +19628,7 @@
         <v>55.539000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B168" s="13">
         <v>7</v>
       </c>
@@ -19332,7 +19654,7 @@
         <v>39.748699999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B169" s="8">
         <v>8</v>
       </c>
@@ -19343,7 +19665,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B170" s="8">
         <v>9</v>
       </c>
@@ -19354,7 +19676,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B171" s="2">
         <v>10</v>
       </c>
@@ -19365,7 +19687,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B172" s="8">
         <v>11</v>
       </c>
@@ -19376,7 +19698,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B173" s="8">
         <v>12</v>
       </c>
@@ -19387,7 +19709,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B174" s="8">
         <v>13</v>
       </c>
@@ -19398,7 +19720,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B175" s="8">
         <v>14</v>
       </c>
@@ -19409,7 +19731,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B176" s="8">
         <v>15</v>
       </c>
@@ -19420,7 +19742,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B177" s="8">
         <v>16</v>
       </c>
@@ -19431,7 +19753,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>758</v>
       </c>
@@ -19468,11 +19790,14 @@
       <c r="O179" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="R179" s="2" t="s">
+      <c r="P179" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="S179" s="2" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B180" s="8">
         <v>2</v>
       </c>
@@ -19501,7 +19826,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B181" s="2">
         <v>3</v>
       </c>
@@ -19527,7 +19852,7 @@
         <v>23.826000000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B182" s="8">
         <v>4</v>
       </c>
@@ -19553,7 +19878,7 @@
         <v>42.713000000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B183" s="8">
         <v>5</v>
       </c>
@@ -19579,7 +19904,7 @@
         <v>60.841999999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B184" s="8">
         <v>6</v>
       </c>
@@ -19608,7 +19933,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B185" s="8">
         <v>7</v>
       </c>
@@ -19634,7 +19959,7 @@
         <v>40.771000000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B186" s="8">
         <v>8</v>
       </c>
@@ -19666,7 +19991,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B187" s="8">
         <v>9</v>
       </c>
@@ -19692,7 +20017,7 @@
         <v>38.018999999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B188" s="8">
         <v>10</v>
       </c>
@@ -19703,7 +20028,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B189" s="8">
         <v>11</v>
       </c>
@@ -19714,7 +20039,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B190" s="8">
         <v>12</v>
       </c>
@@ -19725,7 +20050,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B191" s="8">
         <v>13</v>
       </c>
@@ -19736,7 +20061,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B192" s="8">
         <v>14</v>
       </c>
@@ -19747,7 +20072,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B193" s="8">
         <v>15</v>
       </c>
@@ -19758,7 +20083,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B194" s="8">
         <v>16</v>
       </c>
@@ -19769,7 +20094,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B195" s="8">
         <v>17</v>
       </c>
@@ -19780,7 +20105,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B196" s="8">
         <v>18</v>
       </c>
@@ -19791,7 +20116,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B197" s="8">
         <v>19</v>
       </c>
@@ -19802,7 +20127,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B198" s="8">
         <v>20</v>
       </c>
@@ -19813,7 +20138,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>834</v>
       </c>
@@ -19853,14 +20178,17 @@
       <c r="O200" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="Q200" s="2" t="s">
+      <c r="P200" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="R200" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="R200" s="11" t="s">
+      <c r="S200" s="11" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>848</v>
       </c>
@@ -19881,11 +20209,11 @@
       <c r="I201" s="12">
         <v>115.691</v>
       </c>
-      <c r="P201" s="20" t="s">
+      <c r="Q201" s="20" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>895</v>
       </c>
@@ -19904,11 +20232,11 @@
       <c r="I202" s="2">
         <v>50.4544</v>
       </c>
-      <c r="P202" s="2" t="s">
+      <c r="Q202" s="2" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>897</v>
       </c>
@@ -19927,11 +20255,11 @@
       <c r="I203" s="2">
         <v>41.728200000000001</v>
       </c>
-      <c r="P203" s="2" t="s">
+      <c r="Q203" s="2" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>899</v>
       </c>
@@ -19950,11 +20278,11 @@
       <c r="I204" s="2">
         <v>41.728200000000001</v>
       </c>
-      <c r="P204" s="2" t="s">
+      <c r="Q204" s="2" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>901</v>
       </c>
@@ -19973,11 +20301,11 @@
       <c r="I205" s="2">
         <v>41.728200000000001</v>
       </c>
-      <c r="P205" s="2" t="s">
+      <c r="Q205" s="2" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>902</v>
       </c>
@@ -19996,11 +20324,11 @@
       <c r="I206" s="2">
         <v>41.728200000000001</v>
       </c>
-      <c r="P206" s="2" t="s">
+      <c r="Q206" s="2" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>905</v>
       </c>
@@ -20019,11 +20347,11 @@
       <c r="I207" s="2">
         <v>48.459000000000003</v>
       </c>
-      <c r="P207" s="2" t="s">
+      <c r="Q207" s="2" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>862</v>
       </c>
@@ -20042,11 +20370,11 @@
       <c r="I208" s="2">
         <v>48.459000000000003</v>
       </c>
-      <c r="P208" s="2" t="s">
+      <c r="Q208" s="2" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>864</v>
       </c>
@@ -20065,11 +20393,11 @@
       <c r="I209" s="2">
         <v>48.459000000000003</v>
       </c>
-      <c r="P209" s="2" t="s">
+      <c r="Q209" s="2" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>866</v>
       </c>
@@ -20088,11 +20416,11 @@
       <c r="I210" s="2">
         <v>48.459000000000003</v>
       </c>
-      <c r="P210" s="2" t="s">
+      <c r="Q210" s="2" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>910</v>
       </c>
@@ -20111,11 +20439,11 @@
       <c r="I211" s="2">
         <v>55.012799999999999</v>
       </c>
-      <c r="P211" s="2" t="s">
+      <c r="Q211" s="2" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>871</v>
       </c>
@@ -20134,11 +20462,11 @@
       <c r="I212" s="2">
         <v>55.012799999999999</v>
       </c>
-      <c r="P212" s="2" t="s">
+      <c r="Q212" s="2" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
         <v>913</v>
       </c>
@@ -20157,11 +20485,11 @@
       <c r="I213" s="2">
         <v>44.115400000000001</v>
       </c>
-      <c r="P213" s="2" t="s">
+      <c r="Q213" s="2" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
         <v>915</v>
       </c>
@@ -20180,11 +20508,11 @@
       <c r="I214" s="2">
         <v>40.482900000000001</v>
       </c>
-      <c r="P214" s="2" t="s">
+      <c r="Q214" s="2" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
         <v>916</v>
       </c>
@@ -20203,11 +20531,11 @@
       <c r="I215" s="2">
         <v>40.482900000000001</v>
       </c>
-      <c r="P215" s="2" t="s">
+      <c r="Q215" s="2" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
         <v>919</v>
       </c>
@@ -20226,11 +20554,11 @@
       <c r="I216" s="2">
         <v>33.351100000000002</v>
       </c>
-      <c r="P216" s="2" t="s">
+      <c r="Q216" s="2" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
         <v>921</v>
       </c>
@@ -20249,11 +20577,11 @@
       <c r="I217" s="2">
         <v>33.351100000000002</v>
       </c>
-      <c r="P217" s="2" t="s">
+      <c r="Q217" s="2" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
         <v>922</v>
       </c>
@@ -20280,11 +20608,12 @@
       <c r="M218" s="12"/>
       <c r="N218" s="12"/>
       <c r="O218" s="12"/>
-      <c r="P218" s="12" t="s">
+      <c r="P218" s="12"/>
+      <c r="Q218" s="12" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B219" s="8">
         <v>2</v>
       </c>
@@ -20295,7 +20624,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B220" s="8">
         <v>3</v>
       </c>
@@ -20306,7 +20635,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B221" s="8">
         <v>4</v>
       </c>
@@ -20317,7 +20646,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>969</v>
       </c>
@@ -20354,11 +20683,14 @@
       <c r="O223" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="R223" s="2" t="s">
+      <c r="P223" s="2" t="s">
+        <v>2797</v>
+      </c>
+      <c r="S223" s="2" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B224" s="8">
         <v>2</v>
       </c>
@@ -20390,7 +20722,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B225" s="8">
         <v>3</v>
       </c>
@@ -20401,7 +20733,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B226" s="8">
         <v>4</v>
       </c>
@@ -20412,7 +20744,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B227" s="8">
         <v>5</v>
       </c>
@@ -20423,7 +20755,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B228" s="8">
         <v>6</v>
       </c>
@@ -20434,7 +20766,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
         <v>848</v>
       </c>
@@ -20455,11 +20787,11 @@
       <c r="I229" s="12">
         <v>115.691</v>
       </c>
-      <c r="P229" s="20" t="s">
+      <c r="Q229" s="20" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
         <v>971</v>
       </c>
@@ -20478,11 +20810,11 @@
       <c r="I230" s="2">
         <v>55.125399999999999</v>
       </c>
-      <c r="P230" s="2" t="s">
+      <c r="Q230" s="2" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
         <v>554</v>
       </c>
@@ -20501,11 +20833,11 @@
       <c r="I231" s="2">
         <v>55.125399999999999</v>
       </c>
-      <c r="P231" s="2" t="s">
+      <c r="Q231" s="2" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
         <v>922</v>
       </c>
@@ -20532,11 +20864,12 @@
       <c r="M232" s="12"/>
       <c r="N232" s="12"/>
       <c r="O232" s="12"/>
-      <c r="P232" s="12" t="s">
+      <c r="P232" s="12"/>
+      <c r="Q232" s="12" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
         <v>915</v>
       </c>
@@ -20555,11 +20888,11 @@
       <c r="I233" s="2">
         <v>40.482900000000001</v>
       </c>
-      <c r="P233" s="2" t="s">
+      <c r="Q233" s="2" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
         <v>916</v>
       </c>
@@ -20578,11 +20911,11 @@
       <c r="I234" s="2">
         <v>40.482900000000001</v>
       </c>
-      <c r="P234" s="2" t="s">
+      <c r="Q234" s="2" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>1016</v>
       </c>
@@ -20622,14 +20955,17 @@
       <c r="O236" s="2" t="s">
         <v>994</v>
       </c>
-      <c r="Q236" s="2" t="s">
+      <c r="P236" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="R236" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="R236" s="11" t="s">
+      <c r="S236" s="11" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B237" s="8">
         <v>2</v>
       </c>
@@ -20640,7 +20976,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B238" s="8">
         <v>3</v>
       </c>
@@ -20651,7 +20987,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B239" s="8">
         <v>4</v>
       </c>
@@ -20662,7 +20998,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
         <v>848</v>
       </c>
@@ -20683,11 +21019,11 @@
       <c r="I240" s="12">
         <v>115.691</v>
       </c>
-      <c r="P240" s="20" t="s">
+      <c r="Q240" s="20" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
         <v>919</v>
       </c>
@@ -20706,11 +21042,11 @@
       <c r="I241" s="2">
         <v>33.351100000000002</v>
       </c>
-      <c r="P241" s="2" t="s">
+      <c r="Q241" s="2" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
         <v>921</v>
       </c>
@@ -20729,11 +21065,11 @@
       <c r="I242" s="2">
         <v>33.351100000000002</v>
       </c>
-      <c r="P242" s="2" t="s">
+      <c r="Q242" s="2" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
         <v>915</v>
       </c>
@@ -20752,11 +21088,11 @@
       <c r="I243" s="2">
         <v>40.482900000000001</v>
       </c>
-      <c r="P243" s="2" t="s">
+      <c r="Q243" s="2" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
         <v>916</v>
       </c>
@@ -20775,11 +21111,11 @@
       <c r="I244" s="2">
         <v>40.482900000000001</v>
       </c>
-      <c r="P244" s="2" t="s">
+      <c r="Q244" s="2" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>1014</v>
       </c>
@@ -20816,14 +21152,17 @@
       <c r="O246" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="Q246" s="2" t="s">
+      <c r="P246" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="R246" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="R246" s="2" t="s">
+      <c r="S246" s="2" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B247" s="2">
         <v>2</v>
       </c>
@@ -20834,7 +21173,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B248" s="2">
         <v>3</v>
       </c>
@@ -20845,7 +21184,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B249" s="2">
         <v>4</v>
       </c>
@@ -20856,7 +21195,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
         <v>848</v>
       </c>
@@ -20877,11 +21216,11 @@
       <c r="I250" s="12">
         <v>115.691</v>
       </c>
-      <c r="P250" s="20" t="s">
+      <c r="Q250" s="20" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
         <v>919</v>
       </c>
@@ -20900,11 +21239,11 @@
       <c r="I251" s="2">
         <v>33.351100000000002</v>
       </c>
-      <c r="P251" s="2" t="s">
+      <c r="Q251" s="2" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
         <v>921</v>
       </c>
@@ -20923,11 +21262,11 @@
       <c r="I252" s="2">
         <v>33.351100000000002</v>
       </c>
-      <c r="P252" s="2" t="s">
+      <c r="Q252" s="2" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
         <v>915</v>
       </c>
@@ -20946,11 +21285,11 @@
       <c r="I253" s="2">
         <v>40.482900000000001</v>
       </c>
-      <c r="P253" s="2" t="s">
+      <c r="Q253" s="2" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
         <v>916</v>
       </c>
@@ -20969,11 +21308,11 @@
       <c r="I254" s="2">
         <v>40.482900000000001</v>
       </c>
-      <c r="P254" s="2" t="s">
+      <c r="Q254" s="2" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="255" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
         <v>409</v>
       </c>
@@ -20993,11 +21332,11 @@
         <v>51.719299999999997</v>
       </c>
       <c r="L255" s="21"/>
-      <c r="P255" s="12" t="s">
+      <c r="Q255" s="12" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>1020</v>
       </c>
@@ -21034,14 +21373,17 @@
       <c r="O257" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="Q257" s="2" t="s">
+      <c r="P257" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="R257" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="R257" s="11" t="s">
+      <c r="S257" s="11" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B258" s="2">
         <v>2</v>
       </c>
@@ -21052,7 +21394,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B259" s="2">
         <v>3</v>
       </c>
@@ -21063,7 +21405,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B260" s="2">
         <v>4</v>
       </c>
@@ -21074,7 +21416,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
         <v>848</v>
       </c>
@@ -21095,11 +21437,11 @@
       <c r="I261" s="12">
         <v>115.691</v>
       </c>
-      <c r="P261" s="20" t="s">
+      <c r="Q261" s="20" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
         <v>910</v>
       </c>
@@ -21118,11 +21460,11 @@
       <c r="I262" s="2">
         <v>55.012799999999999</v>
       </c>
-      <c r="P262" s="2" t="s">
+      <c r="Q262" s="2" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
         <v>871</v>
       </c>
@@ -21141,11 +21483,11 @@
       <c r="I263" s="2">
         <v>55.012799999999999</v>
       </c>
-      <c r="P263" s="2" t="s">
+      <c r="Q263" s="2" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B264" s="2" t="s">
         <v>1043</v>
       </c>
@@ -21164,11 +21506,11 @@
       <c r="I264" s="2">
         <v>83.459400000000002</v>
       </c>
-      <c r="P264" s="2" t="s">
+      <c r="Q264" s="2" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>1329</v>
       </c>
@@ -21211,11 +21553,14 @@
       <c r="O266" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="R266" s="2" t="s">
+      <c r="P266" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="S266" s="2" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B267">
         <v>2</v>
       </c>
@@ -21241,7 +21586,7 @@
         <v>55.298000000000002</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B268">
         <v>3</v>
       </c>
@@ -21267,7 +21612,7 @@
         <v>55.298000000000002</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B269" s="2">
         <v>4</v>
       </c>
@@ -21293,7 +21638,7 @@
         <v>20.507999999999999</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B270" s="2">
         <v>5</v>
       </c>
@@ -21319,7 +21664,7 @@
         <v>20.507999999999999</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
         <v>922</v>
       </c>
@@ -21346,11 +21691,12 @@
       <c r="M271" s="12"/>
       <c r="N271" s="12"/>
       <c r="O271" s="12"/>
-      <c r="P271" s="12" t="s">
+      <c r="P271" s="12"/>
+      <c r="Q271" s="12" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
         <v>915</v>
       </c>
@@ -21369,11 +21715,11 @@
       <c r="I272" s="2">
         <v>40.482900000000001</v>
       </c>
-      <c r="P272" s="2" t="s">
+      <c r="Q272" s="2" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
         <v>916</v>
       </c>
@@ -21392,11 +21738,11 @@
       <c r="I273" s="2">
         <v>40.482900000000001</v>
       </c>
-      <c r="P273" s="2" t="s">
+      <c r="Q273" s="2" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B274" s="2">
         <v>6</v>
       </c>
@@ -21407,7 +21753,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B275" s="2">
         <v>7</v>
       </c>
@@ -21418,7 +21764,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B276" s="2">
         <v>8</v>
       </c>
@@ -21429,7 +21775,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B277" s="2">
         <v>9</v>
       </c>
@@ -21440,7 +21786,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B278" s="2">
         <v>10</v>
       </c>
@@ -21451,7 +21797,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>1120</v>
       </c>
@@ -21488,14 +21834,17 @@
       <c r="O280" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="Q280" s="2" t="s">
+      <c r="P280" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="R280" s="2" t="s">
         <v>1130</v>
       </c>
-      <c r="R280" s="11" t="s">
+      <c r="S280" s="11" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B281" s="2">
         <v>12</v>
       </c>
@@ -21527,7 +21876,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B282" s="2">
         <v>13</v>
       </c>
@@ -21553,7 +21902,7 @@
         <v>32.017000000000003</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B283" s="2">
         <v>14</v>
       </c>
@@ -21579,7 +21928,7 @@
         <v>32.017000000000003</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B284" s="2">
         <v>15</v>
       </c>
@@ -21590,7 +21939,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B285" s="2">
         <v>16</v>
       </c>
@@ -21601,7 +21950,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B286" s="2">
         <v>17</v>
       </c>
@@ -21612,7 +21961,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B287" s="2">
         <v>18</v>
       </c>
@@ -21623,7 +21972,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>1166</v>
       </c>
@@ -21663,14 +22012,17 @@
       <c r="O289" s="2" t="s">
         <v>1378</v>
       </c>
-      <c r="Q289" s="2" t="s">
+      <c r="P289" s="2" t="s">
+        <v>2797</v>
+      </c>
+      <c r="R289" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="R289" s="2" t="s">
+      <c r="S289" s="2" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B290" s="2">
         <v>2</v>
       </c>
@@ -21681,7 +22033,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B291" s="2">
         <v>3</v>
       </c>
@@ -21692,7 +22044,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B292" s="2">
         <v>4</v>
       </c>
@@ -21703,7 +22055,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B293" s="2">
         <v>5</v>
       </c>
@@ -21728,11 +22080,11 @@
       <c r="I293" s="2">
         <v>63.936999999999998</v>
       </c>
-      <c r="R293" s="11" t="s">
+      <c r="S293" s="11" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B294" s="2">
         <v>6</v>
       </c>
@@ -21743,7 +22095,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B295" s="2">
         <v>7</v>
       </c>
@@ -21754,7 +22106,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B296" s="2">
         <v>8</v>
       </c>
@@ -21765,7 +22117,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B297" t="s">
         <v>848</v>
       </c>
@@ -21786,11 +22138,11 @@
       <c r="I297" s="12">
         <v>115.691</v>
       </c>
-      <c r="P297" s="20" t="s">
+      <c r="Q297" s="20" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B298" t="s">
         <v>915</v>
       </c>
@@ -21809,11 +22161,11 @@
       <c r="I298" s="2">
         <v>40.482900000000001</v>
       </c>
-      <c r="P298" s="2" t="s">
+      <c r="Q298" s="2" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B299" t="s">
         <v>916</v>
       </c>
@@ -21832,11 +22184,11 @@
       <c r="I299" s="2">
         <v>40.482900000000001</v>
       </c>
-      <c r="P299" s="2" t="s">
+      <c r="Q299" s="2" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="300" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
         <v>1384</v>
       </c>
@@ -21856,11 +22208,11 @@
         <v>51.719299999999997</v>
       </c>
       <c r="L300" s="21"/>
-      <c r="P300" s="12" t="s">
+      <c r="Q300" s="12" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B301" s="2" t="s">
         <v>1232</v>
       </c>
@@ -21879,11 +22231,11 @@
       <c r="I301" s="12">
         <v>124.331</v>
       </c>
-      <c r="P301" s="12" t="s">
+      <c r="Q301" s="12" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="303" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" s="20" t="s">
         <v>1176</v>
       </c>
@@ -21920,11 +22272,14 @@
       <c r="O303" s="20" t="s">
         <v>1379</v>
       </c>
-      <c r="R303" s="41" t="s">
+      <c r="P303" s="2" t="s">
+        <v>2797</v>
+      </c>
+      <c r="S303" s="41" t="s">
         <v>1997</v>
       </c>
     </row>
-    <row r="304" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B304" s="20">
         <v>2</v>
       </c>
@@ -21935,7 +22290,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="305" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B305" s="20">
         <v>3</v>
       </c>
@@ -21946,7 +22301,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>1187</v>
       </c>
@@ -21989,14 +22344,17 @@
       <c r="O307" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="Q307" s="2" t="s">
+      <c r="P307" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="R307" s="2" t="s">
         <v>1189</v>
       </c>
-      <c r="R307" s="11" t="s">
+      <c r="S307" s="11" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B308" s="2">
         <v>2</v>
       </c>
@@ -22025,7 +22383,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B309" s="2">
         <v>3</v>
       </c>
@@ -22051,7 +22409,7 @@
         <v>35.887999999999998</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B310" s="2">
         <v>4</v>
       </c>
@@ -22077,7 +22435,7 @@
         <v>41.206000000000003</v>
       </c>
     </row>
-    <row r="311" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B311" s="20">
         <v>5</v>
       </c>
@@ -22106,7 +22464,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
         <v>1218</v>
       </c>
@@ -22131,11 +22489,11 @@
       <c r="J312" s="2">
         <v>0.17280000000000001</v>
       </c>
-      <c r="P312" s="20" t="s">
+      <c r="Q312" s="20" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
         <v>1222</v>
       </c>
@@ -22157,11 +22515,11 @@
       <c r="I313" s="20">
         <v>104.304</v>
       </c>
-      <c r="P313" s="20" t="s">
+      <c r="Q313" s="20" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
         <v>1241</v>
       </c>
@@ -22177,11 +22535,11 @@
       <c r="H314" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="P314" s="2" t="s">
+      <c r="Q314" s="2" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B315" s="2" t="s">
         <v>1243</v>
       </c>
@@ -22197,11 +22555,11 @@
       <c r="H315" s="2" t="s">
         <v>1230</v>
       </c>
-      <c r="P315" s="2" t="s">
+      <c r="Q315" s="2" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B316" s="2">
         <v>6</v>
       </c>
@@ -22212,7 +22570,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B317" s="2">
         <v>7</v>
       </c>
@@ -22223,7 +22581,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B318" s="2">
         <v>8</v>
       </c>
@@ -22234,7 +22592,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B319" s="2">
         <v>9</v>
       </c>
@@ -22245,7 +22603,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B320" s="2">
         <v>10</v>
       </c>
@@ -22256,7 +22614,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B321" s="2">
         <v>11</v>
       </c>
@@ -22267,7 +22625,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B322" s="2">
         <v>12</v>
       </c>
@@ -22278,7 +22636,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>1264</v>
       </c>
@@ -22315,11 +22673,14 @@
       <c r="O324" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="R324" s="2" t="s">
+      <c r="P324" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="S324" s="2" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B325" s="2">
         <v>2</v>
       </c>
@@ -22345,7 +22706,7 @@
         <v>51.444000000000003</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B326" s="2">
         <v>3</v>
       </c>
@@ -22371,7 +22732,7 @@
         <v>71.384</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B327" s="2">
         <v>4</v>
       </c>
@@ -22400,7 +22761,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B328" s="2">
         <v>5</v>
       </c>
@@ -22426,7 +22787,7 @@
         <v>38.511000000000003</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B329" s="2">
         <v>6</v>
       </c>
@@ -22458,7 +22819,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B330" s="2">
         <v>7</v>
       </c>
@@ -22484,7 +22845,7 @@
         <v>54.643999999999998</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B331" s="2">
         <v>8</v>
       </c>
@@ -22513,7 +22874,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B332" s="2">
         <v>9</v>
       </c>
@@ -22524,7 +22885,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B333" s="2">
         <v>10</v>
       </c>
@@ -22535,7 +22896,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B334" s="2">
         <v>11</v>
       </c>
@@ -22546,7 +22907,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B335" s="2">
         <v>12</v>
       </c>
@@ -22557,7 +22918,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B336" s="2">
         <v>13</v>
       </c>
@@ -22568,7 +22929,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B337" s="2">
         <v>14</v>
       </c>
@@ -22579,7 +22940,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B338" s="2">
         <v>15</v>
       </c>
@@ -22590,7 +22951,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B339" s="2">
         <v>16</v>
       </c>
@@ -22601,7 +22962,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B340" s="2">
         <v>17</v>
       </c>
@@ -22612,7 +22973,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B341" s="2">
         <v>18</v>
       </c>
@@ -22623,7 +22984,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="343" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
         <v>1330</v>
       </c>
@@ -22666,14 +23027,17 @@
       <c r="O343" s="12" t="s">
         <v>1380</v>
       </c>
-      <c r="Q343" s="12" t="s">
+      <c r="P343" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="R343" s="12" t="s">
         <v>1375</v>
       </c>
-      <c r="R343" s="15" t="s">
+      <c r="S343" s="15" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="344" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B344" s="12">
         <v>2</v>
       </c>
@@ -22703,7 +23067,7 @@
       </c>
       <c r="L344" s="21"/>
     </row>
-    <row r="345" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B345" s="12">
         <v>3</v>
       </c>
@@ -22733,7 +23097,7 @@
       </c>
       <c r="L345" s="21"/>
     </row>
-    <row r="346" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B346" s="12">
         <v>4</v>
       </c>
@@ -22763,7 +23127,7 @@
       </c>
       <c r="L346" s="21"/>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B347" s="12">
         <v>5</v>
       </c>
@@ -22789,7 +23153,7 @@
         <v>61.311</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B348" t="s">
         <v>915</v>
       </c>
@@ -22808,11 +23172,11 @@
       <c r="I348" s="2">
         <v>40.482900000000001</v>
       </c>
-      <c r="P348" s="2" t="s">
+      <c r="Q348" s="2" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
         <v>916</v>
       </c>
@@ -22831,11 +23195,11 @@
       <c r="I349" s="2">
         <v>40.482900000000001</v>
       </c>
-      <c r="P349" s="2" t="s">
+      <c r="Q349" s="2" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="350" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
         <v>409</v>
       </c>
@@ -22855,11 +23219,11 @@
         <v>51.719299999999997</v>
       </c>
       <c r="L350" s="21"/>
-      <c r="P350" s="12" t="s">
+      <c r="Q350" s="12" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="351" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B351" t="s">
         <v>1385</v>
       </c>
@@ -22879,11 +23243,11 @@
         <v>115.691</v>
       </c>
       <c r="L351" s="21"/>
-      <c r="P351" s="12" t="s">
+      <c r="Q351" s="12" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="352" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B352" s="2" t="s">
         <v>1388</v>
       </c>
@@ -22897,11 +23261,11 @@
         <v>1366</v>
       </c>
       <c r="L352" s="21"/>
-      <c r="P352" s="12" t="s">
+      <c r="Q352" s="12" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B353" s="2">
         <v>6</v>
       </c>
@@ -22912,7 +23276,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B354" s="2">
         <v>7</v>
       </c>
@@ -22923,7 +23287,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B355" s="2">
         <v>8</v>
       </c>
@@ -22934,7 +23298,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B356" s="2">
         <v>9</v>
       </c>
@@ -22945,7 +23309,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B357" s="2">
         <v>10</v>
       </c>
@@ -22956,7 +23320,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
         <v>1398</v>
       </c>
@@ -22978,11 +23342,14 @@
       <c r="O359" s="2" t="s">
         <v>1438</v>
       </c>
-      <c r="R359" s="11" t="s">
+      <c r="P359" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="S359" s="11" t="s">
         <v>2067</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B360" s="2">
         <v>2</v>
       </c>
@@ -22993,7 +23360,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B361" s="2">
         <v>3</v>
       </c>
@@ -23019,7 +23386,7 @@
         <v>58.93</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B362" s="2">
         <v>4</v>
       </c>
@@ -23048,7 +23415,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B363" s="2">
         <v>5</v>
       </c>
@@ -23074,7 +23441,7 @@
         <v>57.848999999999997</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B364" s="2">
         <v>6</v>
       </c>
@@ -23085,7 +23452,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B365" s="2">
         <v>7</v>
       </c>
@@ -23096,7 +23463,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B366" s="2">
         <v>8</v>
       </c>
@@ -23107,7 +23474,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B367" s="2">
         <v>9</v>
       </c>
@@ -23118,7 +23485,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B368" s="2">
         <v>10</v>
       </c>
@@ -23129,7 +23496,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
         <v>915</v>
       </c>
@@ -23148,11 +23515,11 @@
       <c r="I369" s="2">
         <v>40.482900000000001</v>
       </c>
-      <c r="P369" s="2" t="s">
+      <c r="Q369" s="2" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B370" t="s">
         <v>916</v>
       </c>
@@ -23171,11 +23538,11 @@
       <c r="I370" s="2">
         <v>40.482900000000001</v>
       </c>
-      <c r="P370" s="2" t="s">
+      <c r="Q370" s="2" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
         <v>1445</v>
       </c>
@@ -23218,14 +23585,17 @@
       <c r="O372" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="Q372" s="2" t="s">
+      <c r="P372" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="R372" s="2" t="s">
         <v>1468</v>
       </c>
-      <c r="R372" s="2" t="s">
+      <c r="S372" s="2" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B373" s="13">
         <v>2</v>
       </c>
@@ -23251,7 +23621,7 @@
         <v>54.914000000000001</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B374" s="2">
         <v>3</v>
       </c>
@@ -23277,7 +23647,7 @@
         <v>32.051000000000002</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B375" s="13">
         <v>4</v>
       </c>
@@ -23288,7 +23658,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B376" s="2">
         <v>5</v>
       </c>
@@ -23299,7 +23669,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B377" s="13">
         <v>6</v>
       </c>
@@ -23310,7 +23680,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
         <v>1510</v>
       </c>
@@ -23335,14 +23705,17 @@
       <c r="O379" s="2" t="s">
         <v>1470</v>
       </c>
-      <c r="Q379" s="2" t="s">
+      <c r="P379" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="R379" s="2" t="s">
         <v>1499</v>
       </c>
-      <c r="R379" s="11" t="s">
+      <c r="S379" s="11" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B380" s="2">
         <v>2</v>
       </c>
@@ -23353,7 +23726,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B381" t="s">
         <v>1501</v>
       </c>
@@ -23366,11 +23739,11 @@
       <c r="H381" s="12" t="s">
         <v>1711</v>
       </c>
-      <c r="P381" s="2" t="s">
+      <c r="Q381" s="2" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
         <v>1502</v>
       </c>
@@ -23383,11 +23756,11 @@
       <c r="H382" s="2" t="s">
         <v>1500</v>
       </c>
-      <c r="P382" s="2" t="s">
+      <c r="Q382" s="2" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B383" t="s">
         <v>1475</v>
       </c>
@@ -23400,11 +23773,11 @@
       <c r="H383" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="P383" s="2" t="s">
+      <c r="Q383" s="2" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
         <v>1478</v>
       </c>
@@ -23417,11 +23790,11 @@
       <c r="H384" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="P384" s="2" t="s">
+      <c r="Q384" s="2" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B385" t="s">
         <v>1481</v>
       </c>
@@ -23434,11 +23807,11 @@
       <c r="H385" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="P385" s="2" t="s">
+      <c r="Q385" s="2" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B386" t="s">
         <v>1484</v>
       </c>
@@ -23451,11 +23824,11 @@
       <c r="H386" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="P386" s="2" t="s">
+      <c r="Q386" s="2" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B387" t="s">
         <v>1487</v>
       </c>
@@ -23468,11 +23841,11 @@
       <c r="H387" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="P387" s="2" t="s">
+      <c r="Q387" s="2" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B388" t="s">
         <v>1490</v>
       </c>
@@ -23485,11 +23858,11 @@
       <c r="H388" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="P388" s="2" t="s">
+      <c r="Q388" s="2" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B389" t="s">
         <v>1493</v>
       </c>
@@ -23502,11 +23875,11 @@
       <c r="H389" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="P389" s="2" t="s">
+      <c r="Q389" s="2" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A391" s="11" t="s">
         <v>1512</v>
       </c>
@@ -23543,11 +23916,14 @@
       <c r="O391" s="2" t="s">
         <v>1607</v>
       </c>
-      <c r="R391" s="11" t="s">
+      <c r="P391" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="S391" s="11" t="s">
         <v>1606</v>
       </c>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B392" s="2">
         <v>2</v>
       </c>
@@ -23573,7 +23949,7 @@
         <v>46.000999999999998</v>
       </c>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B393" s="2">
         <v>3</v>
       </c>
@@ -23599,7 +23975,7 @@
         <v>47.718000000000004</v>
       </c>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B394" s="2">
         <v>4</v>
       </c>
@@ -23625,7 +24001,7 @@
         <v>51.673999999999999</v>
       </c>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B395" s="2">
         <v>5</v>
       </c>
@@ -23651,7 +24027,7 @@
         <v>51.673999999999999</v>
       </c>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B396" s="2">
         <v>6</v>
       </c>
@@ -23677,7 +24053,7 @@
         <v>36.746000000000002</v>
       </c>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B397" s="2">
         <v>7</v>
       </c>
@@ -23703,7 +24079,7 @@
         <v>36.746000000000002</v>
       </c>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B398" s="2">
         <v>8</v>
       </c>
@@ -23729,7 +24105,7 @@
         <v>59.89</v>
       </c>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B399" s="2">
         <v>9</v>
       </c>
@@ -23755,7 +24131,7 @@
         <v>59.89</v>
       </c>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
         <v>2136</v>
       </c>
@@ -23771,8 +24147,11 @@
       <c r="G400" s="2" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="P400" s="2" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B401" s="2">
         <v>11</v>
       </c>
@@ -23783,7 +24162,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B402" s="2">
         <v>12</v>
       </c>
@@ -23794,7 +24173,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B403" s="2">
         <v>13</v>
       </c>
@@ -23805,7 +24184,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
         <v>2137</v>
       </c>
@@ -23818,8 +24197,11 @@
       <c r="D404" s="2" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="P404" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B405" s="2">
         <v>15</v>
       </c>
@@ -23833,7 +24215,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B406" s="2">
         <v>16</v>
       </c>
@@ -23844,7 +24226,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B407" s="2">
         <v>17</v>
       </c>
@@ -23855,7 +24237,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B408" s="2">
         <v>18</v>
       </c>
@@ -23866,7 +24248,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B409" s="2">
         <v>19</v>
       </c>
@@ -23877,7 +24259,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B410" s="2">
         <v>20</v>
       </c>
@@ -23888,7 +24270,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B411" s="2">
         <v>21</v>
       </c>
@@ -23899,7 +24281,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B412" s="2">
         <v>22</v>
       </c>
@@ -23910,7 +24292,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B413" s="2">
         <v>23</v>
       </c>
@@ -23921,7 +24303,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
         <v>2138</v>
       </c>
@@ -23934,8 +24316,11 @@
       <c r="D414" s="2" t="s">
         <v>1618</v>
       </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="P414" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B415" s="2">
         <v>25</v>
       </c>
@@ -23946,7 +24331,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B416" s="2">
         <v>26</v>
       </c>
@@ -23957,7 +24342,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B417" s="2">
         <v>27</v>
       </c>
@@ -23971,7 +24356,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B418" s="2">
         <v>28</v>
       </c>
@@ -23982,7 +24367,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B419" s="2">
         <v>29</v>
       </c>
@@ -23993,7 +24378,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
         <v>1639</v>
       </c>
@@ -24034,16 +24419,19 @@
         <v>1640</v>
       </c>
       <c r="P421" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="Q421" s="2" t="s">
         <v>1710</v>
       </c>
-      <c r="Q421" s="2" t="s">
+      <c r="R421" s="2" t="s">
         <v>1704</v>
       </c>
-      <c r="R421" s="2" t="s">
+      <c r="S421" s="2" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B422" s="2">
         <v>2</v>
       </c>
@@ -24068,11 +24456,11 @@
       <c r="I422" s="2">
         <v>85.793999999999997</v>
       </c>
-      <c r="P422" s="2" t="s">
+      <c r="Q422" s="2" t="s">
         <v>1713</v>
       </c>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B423" s="2">
         <v>3</v>
       </c>
@@ -24097,11 +24485,11 @@
       <c r="I423" s="2">
         <v>85.793999999999997</v>
       </c>
-      <c r="P423" s="2" t="s">
+      <c r="Q423" s="2" t="s">
         <v>1713</v>
       </c>
     </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B424" s="2">
         <v>4</v>
       </c>
@@ -24126,11 +24514,11 @@
       <c r="I424" s="2">
         <v>38.953000000000003</v>
       </c>
-      <c r="P424" s="2" t="s">
+      <c r="Q424" s="2" t="s">
         <v>1714</v>
       </c>
     </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B425" s="2">
         <v>5</v>
       </c>
@@ -24155,11 +24543,11 @@
       <c r="I425" s="2">
         <v>68.409000000000006</v>
       </c>
-      <c r="P425" s="2" t="s">
+      <c r="Q425" s="2" t="s">
         <v>1715</v>
       </c>
     </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B426" s="2">
         <v>6</v>
       </c>
@@ -24184,11 +24572,11 @@
       <c r="I426" s="2">
         <v>85.793999999999997</v>
       </c>
-      <c r="P426" s="2" t="s">
+      <c r="Q426" s="2" t="s">
         <v>1713</v>
       </c>
     </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B427" s="2">
         <v>7</v>
       </c>
@@ -24213,11 +24601,11 @@
       <c r="I427" s="2">
         <v>38.953000000000003</v>
       </c>
-      <c r="P427" s="2" t="s">
+      <c r="Q427" s="2" t="s">
         <v>1714</v>
       </c>
     </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B428" s="2">
         <v>8</v>
       </c>
@@ -24242,11 +24630,11 @@
       <c r="I428" s="2">
         <v>38.953000000000003</v>
       </c>
-      <c r="P428" s="2" t="s">
+      <c r="Q428" s="2" t="s">
         <v>1714</v>
       </c>
     </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B429" s="2">
         <v>9</v>
       </c>
@@ -24258,7 +24646,7 @@
       </c>
       <c r="G429" s="20"/>
     </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B430" s="2">
         <v>10</v>
       </c>
@@ -24270,7 +24658,7 @@
       </c>
       <c r="G430" s="20"/>
     </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B431" s="2">
         <v>11</v>
       </c>
@@ -24295,11 +24683,11 @@
       <c r="I431" s="2">
         <v>85.793999999999997</v>
       </c>
-      <c r="P431" s="2" t="s">
+      <c r="Q431" s="2" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B432" s="2">
         <v>12</v>
       </c>
@@ -24324,11 +24712,11 @@
       <c r="I432" s="2">
         <v>38.953000000000003</v>
       </c>
-      <c r="P432" s="2" t="s">
+      <c r="Q432" s="2" t="s">
         <v>1716</v>
       </c>
     </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B433" s="2">
         <v>13</v>
       </c>
@@ -24353,11 +24741,11 @@
       <c r="I433" s="2">
         <v>38.953000000000003</v>
       </c>
-      <c r="P433" s="2" t="s">
+      <c r="Q433" s="2" t="s">
         <v>1717</v>
       </c>
     </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B434" s="2">
         <v>14</v>
       </c>
@@ -24382,11 +24770,11 @@
       <c r="I434" s="2">
         <v>71.384</v>
       </c>
-      <c r="P434" s="2" t="s">
+      <c r="Q434" s="2" t="s">
         <v>1700</v>
       </c>
     </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B435" s="2">
         <v>15</v>
       </c>
@@ -24414,11 +24802,11 @@
       <c r="J435" s="2">
         <v>6.34</v>
       </c>
-      <c r="P435" s="2" t="s">
+      <c r="Q435" s="2" t="s">
         <v>1718</v>
       </c>
     </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B436" s="2">
         <v>16</v>
       </c>
@@ -24429,7 +24817,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B437" s="2">
         <v>17</v>
       </c>
@@ -24440,7 +24828,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B438" t="s">
         <v>1769</v>
       </c>
@@ -24465,11 +24853,11 @@
       <c r="I438" s="2">
         <v>40.825000000000003</v>
       </c>
-      <c r="P438" s="2" t="s">
+      <c r="Q438" s="2" t="s">
         <v>1709</v>
       </c>
     </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B439" t="s">
         <v>1764</v>
       </c>
@@ -24482,11 +24870,11 @@
       <c r="H439" s="2" t="s">
         <v>1725</v>
       </c>
-      <c r="P439" s="2" t="s">
+      <c r="Q439" s="2" t="s">
         <v>1724</v>
       </c>
     </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B440" t="s">
         <v>1766</v>
       </c>
@@ -24499,11 +24887,11 @@
       <c r="H440" s="2" t="s">
         <v>1726</v>
       </c>
-      <c r="P440" s="2" t="s">
+      <c r="Q440" s="2" t="s">
         <v>1724</v>
       </c>
     </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B441" s="2">
         <v>18</v>
       </c>
@@ -24514,7 +24902,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B442" s="2">
         <v>19</v>
       </c>
@@ -24525,7 +24913,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B443" s="2">
         <v>20</v>
       </c>
@@ -24536,7 +24924,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B444" s="2">
         <v>21</v>
       </c>
@@ -24547,7 +24935,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B445" s="2">
         <v>22</v>
       </c>
@@ -24558,7 +24946,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
         <v>1771</v>
       </c>
@@ -24571,11 +24959,14 @@
       <c r="O447" s="2" t="s">
         <v>1772</v>
       </c>
-      <c r="R447" s="2" t="s">
+      <c r="P447" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="S447" s="2" t="s">
         <v>1774</v>
       </c>
     </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
         <v>1775</v>
       </c>
@@ -24618,14 +25009,17 @@
       <c r="O449" s="2" t="s">
         <v>1777</v>
       </c>
-      <c r="Q449" s="2" t="s">
+      <c r="P449" s="2" t="s">
+        <v>2797</v>
+      </c>
+      <c r="R449" s="2" t="s">
         <v>1778</v>
       </c>
-      <c r="R449" s="2" t="s">
+      <c r="S449" s="2" t="s">
         <v>1804</v>
       </c>
     </row>
-    <row r="450" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B450" s="2">
         <v>2</v>
       </c>
@@ -24653,11 +25047,11 @@
       <c r="J450" s="12">
         <v>0.125</v>
       </c>
-      <c r="R450" s="2" t="s">
+      <c r="S450" s="2" t="s">
         <v>1779</v>
       </c>
     </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B451" t="s">
         <v>1822</v>
       </c>
@@ -24670,11 +25064,11 @@
       <c r="H451" s="2" t="s">
         <v>1725</v>
       </c>
-      <c r="P451" s="2" t="s">
+      <c r="Q451" s="2" t="s">
         <v>1787</v>
       </c>
     </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B452" t="s">
         <v>1824</v>
       </c>
@@ -24687,11 +25081,11 @@
       <c r="H452" s="2" t="s">
         <v>1789</v>
       </c>
-      <c r="P452" s="2" t="s">
+      <c r="Q452" s="2" t="s">
         <v>1788</v>
       </c>
     </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B453" t="s">
         <v>1826</v>
       </c>
@@ -24704,11 +25098,11 @@
       <c r="H453" s="2" t="s">
         <v>1790</v>
       </c>
-      <c r="P453" s="2" t="s">
+      <c r="Q453" s="2" t="s">
         <v>1788</v>
       </c>
     </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B454" t="s">
         <v>1828</v>
       </c>
@@ -24721,11 +25115,11 @@
       <c r="H454" s="2" t="s">
         <v>1791</v>
       </c>
-      <c r="P454" s="2" t="s">
+      <c r="Q454" s="2" t="s">
         <v>1788</v>
       </c>
     </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B455" t="s">
         <v>1830</v>
       </c>
@@ -24738,11 +25132,11 @@
       <c r="H455" s="2" t="s">
         <v>1789</v>
       </c>
-      <c r="P455" s="2" t="s">
+      <c r="Q455" s="2" t="s">
         <v>1788</v>
       </c>
     </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B456" t="s">
         <v>1832</v>
       </c>
@@ -24755,11 +25149,11 @@
       <c r="H456" s="2" t="s">
         <v>1789</v>
       </c>
-      <c r="P456" s="2" t="s">
+      <c r="Q456" s="2" t="s">
         <v>1788</v>
       </c>
     </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B457" t="s">
         <v>1834</v>
       </c>
@@ -24772,11 +25166,11 @@
       <c r="H457" s="2" t="s">
         <v>1792</v>
       </c>
-      <c r="P457" s="2" t="s">
+      <c r="Q457" s="2" t="s">
         <v>1788</v>
       </c>
     </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B458" t="s">
         <v>1836</v>
       </c>
@@ -24789,11 +25183,11 @@
       <c r="H458" s="2" t="s">
         <v>1800</v>
       </c>
-      <c r="P458" s="2" t="s">
+      <c r="Q458" s="2" t="s">
         <v>1794</v>
       </c>
     </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B459" t="s">
         <v>1838</v>
       </c>
@@ -24806,11 +25200,11 @@
       <c r="H459" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="P459" s="2" t="s">
+      <c r="Q459" s="2" t="s">
         <v>1799</v>
       </c>
     </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B460" t="s">
         <v>1840</v>
       </c>
@@ -24823,11 +25217,11 @@
       <c r="H460" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="P460" s="2" t="s">
+      <c r="Q460" s="2" t="s">
         <v>1799</v>
       </c>
     </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B461" t="s">
         <v>1842</v>
       </c>
@@ -24840,11 +25234,11 @@
       <c r="H461" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="P461" s="2" t="s">
+      <c r="Q461" s="2" t="s">
         <v>1799</v>
       </c>
     </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B462" t="s">
         <v>1844</v>
       </c>
@@ -24857,11 +25251,11 @@
       <c r="H462" s="2" t="s">
         <v>1803</v>
       </c>
-      <c r="P462" s="2" t="s">
+      <c r="Q462" s="2" t="s">
         <v>1799</v>
       </c>
     </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B463" t="s">
         <v>1846</v>
       </c>
@@ -24874,11 +25268,11 @@
       <c r="H463" s="2" t="s">
         <v>1811</v>
       </c>
-      <c r="P463" s="2" t="s">
+      <c r="Q463" s="2" t="s">
         <v>1810</v>
       </c>
     </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B464" s="2" t="s">
         <v>693</v>
       </c>
@@ -24891,11 +25285,11 @@
       <c r="H464" s="2" t="s">
         <v>1848</v>
       </c>
-      <c r="P464" s="2" t="s">
+      <c r="Q464" s="2" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="465" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B465" t="s">
         <v>1850</v>
       </c>
@@ -24908,11 +25302,11 @@
       <c r="H465" s="2" t="s">
         <v>1808</v>
       </c>
-      <c r="P465" s="2" t="s">
+      <c r="Q465" s="2" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="466" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B466" s="2">
         <v>3</v>
       </c>
@@ -24941,7 +25335,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="467" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B467" s="2">
         <v>4</v>
       </c>
@@ -24952,7 +25346,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="468" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B468" s="2">
         <v>5</v>
       </c>
@@ -24963,7 +25357,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="469" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B469" s="2">
         <v>6</v>
       </c>
@@ -24974,7 +25368,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="471" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
         <v>1858</v>
       </c>
@@ -25011,14 +25405,17 @@
       <c r="O471" s="2" t="s">
         <v>1854</v>
       </c>
-      <c r="Q471" s="2" t="s">
+      <c r="P471" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="R471" s="2" t="s">
         <v>1939</v>
       </c>
-      <c r="R471" s="2" t="s">
+      <c r="S471" s="2" t="s">
         <v>1874</v>
       </c>
     </row>
-    <row r="472" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B472" s="2">
         <v>2</v>
       </c>
@@ -25050,7 +25447,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="473" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B473" s="2">
         <v>3</v>
       </c>
@@ -25082,7 +25479,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="474" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B474" s="2">
         <v>4</v>
       </c>
@@ -25108,7 +25505,7 @@
         <v>14.161</v>
       </c>
     </row>
-    <row r="475" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B475" s="2">
         <v>5</v>
       </c>
@@ -25140,7 +25537,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="476" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B476" s="2">
         <v>6</v>
       </c>
@@ -25172,7 +25569,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="477" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B477" s="2">
         <v>7</v>
       </c>
@@ -25204,7 +25601,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="478" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B478" s="2">
         <v>8</v>
       </c>
@@ -25216,7 +25613,7 @@
       </c>
       <c r="I478" s="25"/>
     </row>
-    <row r="479" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B479" s="2">
         <v>9</v>
       </c>
@@ -25227,7 +25624,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="480" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B480" s="2">
         <v>10</v>
       </c>
@@ -25238,7 +25635,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="481" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B481" s="2">
         <v>11</v>
       </c>
@@ -25249,7 +25646,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="482" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B482" s="2">
         <v>12</v>
       </c>
@@ -25260,7 +25657,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="483" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B483" t="s">
         <v>1903</v>
       </c>
@@ -25273,11 +25670,11 @@
       <c r="H483" s="2" t="s">
         <v>1896</v>
       </c>
-      <c r="P483" s="2" t="s">
+      <c r="Q483" s="2" t="s">
         <v>1895</v>
       </c>
     </row>
-    <row r="484" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B484" t="s">
         <v>1904</v>
       </c>
@@ -25290,11 +25687,11 @@
       <c r="H484" s="2" t="s">
         <v>1897</v>
       </c>
-      <c r="P484" s="2" t="s">
+      <c r="Q484" s="2" t="s">
         <v>1895</v>
       </c>
     </row>
-    <row r="485" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B485" t="s">
         <v>1906</v>
       </c>
@@ -25307,11 +25704,11 @@
       <c r="H485" s="2" t="s">
         <v>1896</v>
       </c>
-      <c r="P485" s="2" t="s">
+      <c r="Q485" s="2" t="s">
         <v>1902</v>
       </c>
     </row>
-    <row r="486" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B486" t="s">
         <v>1911</v>
       </c>
@@ -25324,11 +25721,11 @@
       <c r="H486" s="2" t="s">
         <v>1896</v>
       </c>
-      <c r="P486" s="2" t="s">
+      <c r="Q486" s="2" t="s">
         <v>1902</v>
       </c>
     </row>
-    <row r="487" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B487" t="s">
         <v>1913</v>
       </c>
@@ -25341,11 +25738,11 @@
       <c r="H487" s="2" t="s">
         <v>1896</v>
       </c>
-      <c r="P487" s="2" t="s">
+      <c r="Q487" s="2" t="s">
         <v>1902</v>
       </c>
     </row>
-    <row r="488" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B488" t="s">
         <v>1914</v>
       </c>
@@ -25358,11 +25755,11 @@
       <c r="H488" s="2" t="s">
         <v>1896</v>
       </c>
-      <c r="P488" s="2" t="s">
+      <c r="Q488" s="2" t="s">
         <v>1902</v>
       </c>
     </row>
-    <row r="489" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B489" t="s">
         <v>1915</v>
       </c>
@@ -25375,11 +25772,11 @@
       <c r="H489" s="12" t="s">
         <v>1711</v>
       </c>
-      <c r="P489" s="2" t="s">
+      <c r="Q489" s="2" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="491" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
         <v>1921</v>
       </c>
@@ -25419,14 +25816,17 @@
       <c r="O491" s="2" t="s">
         <v>1922</v>
       </c>
-      <c r="Q491" s="12" t="s">
+      <c r="P491" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="R491" s="12" t="s">
         <v>1940</v>
       </c>
-      <c r="R491" s="11" t="s">
+      <c r="S491" s="11" t="s">
         <v>1923</v>
       </c>
     </row>
-    <row r="492" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B492" s="2">
         <v>2</v>
       </c>
@@ -25437,7 +25837,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="493" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B493" s="2">
         <v>3</v>
       </c>
@@ -25448,7 +25848,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="494" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B494" s="2">
         <v>4</v>
       </c>
@@ -25459,7 +25859,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="496" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
         <v>1942</v>
       </c>
@@ -25499,11 +25899,14 @@
       <c r="O496" s="2" t="s">
         <v>1944</v>
       </c>
-      <c r="R496" s="2" t="s">
+      <c r="P496" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="S496" s="2" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="497" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B497">
         <v>2</v>
       </c>
@@ -25532,7 +25935,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B498" t="s">
         <v>1969</v>
       </c>
@@ -25545,11 +25948,11 @@
       <c r="H498" s="2" t="s">
         <v>1954</v>
       </c>
-      <c r="P498" s="2" t="s">
+      <c r="Q498" s="2" t="s">
         <v>1952</v>
       </c>
     </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B499" t="s">
         <v>1970</v>
       </c>
@@ -25562,11 +25965,11 @@
       <c r="H499" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="P499" s="2" t="s">
+      <c r="Q499" s="2" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="500" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B500" t="s">
         <v>1971</v>
       </c>
@@ -25579,11 +25982,11 @@
       <c r="H500" s="2" t="s">
         <v>1958</v>
       </c>
-      <c r="P500" s="2" t="s">
+      <c r="Q500" s="2" t="s">
         <v>1956</v>
       </c>
     </row>
-    <row r="501" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B501" s="2">
         <v>3</v>
       </c>
@@ -25609,7 +26012,7 @@
         <v>35.561</v>
       </c>
     </row>
-    <row r="502" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B502" s="2">
         <v>4</v>
       </c>
@@ -25620,7 +26023,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="503" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B503" s="2">
         <v>5</v>
       </c>
@@ -25631,7 +26034,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="504" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B504" s="2">
         <v>6</v>
       </c>
@@ -25642,7 +26045,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="506" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A506" s="2" t="s">
         <v>1978</v>
       </c>
@@ -25682,11 +26085,14 @@
       <c r="O506" s="2" t="s">
         <v>1994</v>
       </c>
-      <c r="R506" s="2" t="s">
+      <c r="P506" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="S506" s="2" t="s">
         <v>1979</v>
       </c>
     </row>
-    <row r="507" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B507" s="2">
         <v>2</v>
       </c>
@@ -25697,7 +26103,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="508" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B508" s="2">
         <v>3</v>
       </c>
@@ -25708,7 +26114,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="509" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B509" s="2">
         <v>4</v>
       </c>
@@ -25719,7 +26125,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="511" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A511" s="2" t="s">
         <v>2001</v>
       </c>
@@ -25755,11 +26161,14 @@
       <c r="O511" s="2" t="s">
         <v>1999</v>
       </c>
-      <c r="R511" s="11" t="s">
+      <c r="P511" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="S511" s="11" t="s">
         <v>1998</v>
       </c>
     </row>
-    <row r="512" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B512" s="2">
         <v>2</v>
       </c>
@@ -25770,7 +26179,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="513" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B513" s="2">
         <v>3</v>
       </c>
@@ -25781,7 +26190,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="515" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A515" s="2" t="s">
         <v>2069</v>
       </c>
@@ -25809,11 +26218,14 @@
       <c r="O515" s="2" t="s">
         <v>2071</v>
       </c>
-      <c r="R515" s="2" t="s">
+      <c r="P515" s="2" t="s">
+        <v>2797</v>
+      </c>
+      <c r="S515" s="2" t="s">
         <v>2070</v>
       </c>
     </row>
-    <row r="516" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B516" s="2">
         <v>2</v>
       </c>
@@ -25824,7 +26236,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="517" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B517" s="2">
         <v>3</v>
       </c>
@@ -25835,7 +26247,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="519" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A519" s="2" t="s">
         <v>2113</v>
       </c>
@@ -25854,11 +26266,14 @@
       <c r="O519" s="2" t="s">
         <v>2071</v>
       </c>
-      <c r="R519" s="2" t="s">
+      <c r="P519" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="S519" s="2" t="s">
         <v>2091</v>
       </c>
     </row>
-    <row r="520" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B520" s="2">
         <v>2</v>
       </c>
@@ -25875,7 +26290,7 @@
         <v>62.512</v>
       </c>
     </row>
-    <row r="521" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B521" s="2">
         <v>3</v>
       </c>
@@ -25886,7 +26301,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="522" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B522" s="2">
         <v>4</v>
       </c>
@@ -25897,7 +26312,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="523" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B523" s="2">
         <v>5</v>
       </c>
@@ -25908,7 +26323,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="524" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B524" t="s">
         <v>2114</v>
       </c>
@@ -25924,11 +26339,11 @@
       <c r="N524" s="2" t="s">
         <v>2116</v>
       </c>
-      <c r="P524" s="2" t="s">
+      <c r="Q524" s="2" t="s">
         <v>2111</v>
       </c>
     </row>
-    <row r="526" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A526" s="20" t="s">
         <v>2536</v>
       </c>
@@ -25956,14 +26371,17 @@
       <c r="O526" s="20" t="s">
         <v>2119</v>
       </c>
-      <c r="Q526" s="20" t="s">
+      <c r="P526" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="R526" s="20" t="s">
         <v>2118</v>
       </c>
-      <c r="R526" s="20" t="s">
+      <c r="S526" s="20" t="s">
         <v>2117</v>
       </c>
     </row>
-    <row r="527" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B527" s="2">
         <v>2</v>
       </c>
@@ -25974,7 +26392,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="528" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B528" s="2">
         <v>3</v>
       </c>
@@ -25985,10 +26403,10 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C529" s="20"/>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>2531</v>
       </c>
@@ -26018,8 +26436,11 @@
       <c r="O530" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P530" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="531" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A531"/>
       <c r="B531" s="2">
         <v>2</v>
@@ -26041,7 +26462,7 @@
       <c r="M531"/>
       <c r="N531"/>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A532"/>
       <c r="C532"/>
       <c r="D532"/>
@@ -26056,7 +26477,7 @@
       <c r="M532"/>
       <c r="N532"/>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>2493</v>
       </c>
@@ -26080,8 +26501,11 @@
       <c r="O533" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P533" s="2" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="534" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>2494</v>
       </c>
@@ -26105,8 +26529,11 @@
       <c r="O534" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P534" s="2" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="535" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>2495</v>
       </c>
@@ -26130,8 +26557,11 @@
       <c r="O535" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P535" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="536" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>2496</v>
       </c>
@@ -26155,8 +26585,11 @@
       <c r="O536" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P536" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="537" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>2497</v>
       </c>
@@ -26180,8 +26613,11 @@
       <c r="O537" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P537" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="538" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>2498</v>
       </c>
@@ -26205,8 +26641,11 @@
       <c r="O538" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P538" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="539" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>2499</v>
       </c>
@@ -26230,8 +26669,11 @@
       <c r="O539" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P539" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="540" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>2500</v>
       </c>
@@ -26255,8 +26697,11 @@
       <c r="O540" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P540" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="541" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>2501</v>
       </c>
@@ -26280,8 +26725,11 @@
       <c r="O541" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P541" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="542" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>2502</v>
       </c>
@@ -26305,8 +26753,11 @@
       <c r="O542" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P542" s="2" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="543" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>2503</v>
       </c>
@@ -26330,8 +26781,11 @@
       <c r="O543" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P543" s="2" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="544" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>2504</v>
       </c>
@@ -26355,8 +26809,11 @@
       <c r="O544" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P544" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="545" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>2505</v>
       </c>
@@ -26380,8 +26837,11 @@
       <c r="O545" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P545" s="2" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="546" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>2506</v>
       </c>
@@ -26405,8 +26865,11 @@
       <c r="O546" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P546" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="547" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>2507</v>
       </c>
@@ -26430,8 +26893,11 @@
       <c r="O547" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P547" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="548" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>2508</v>
       </c>
@@ -26455,8 +26921,11 @@
       <c r="O548" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P548" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="549" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>2509</v>
       </c>
@@ -26480,8 +26949,11 @@
       <c r="O549" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P549" s="2" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="550" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>2510</v>
       </c>
@@ -26505,8 +26977,11 @@
       <c r="O550" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P550" s="2" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="551" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>2511</v>
       </c>
@@ -26530,8 +27005,11 @@
       <c r="O551" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P551" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="552" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>2512</v>
       </c>
@@ -26555,8 +27033,11 @@
       <c r="O552" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P552" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="553" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>2513</v>
       </c>
@@ -26580,8 +27061,11 @@
       <c r="O553" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P553" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="554" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>2514</v>
       </c>
@@ -26605,8 +27089,11 @@
       <c r="O554" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P554" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="555" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>2515</v>
       </c>
@@ -26630,8 +27117,11 @@
       <c r="O555" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P555" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="556" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>2516</v>
       </c>
@@ -26655,8 +27145,11 @@
       <c r="O556" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P556" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="557" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>2517</v>
       </c>
@@ -26680,8 +27173,11 @@
       <c r="O557" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P557" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="558" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>2518</v>
       </c>
@@ -26705,8 +27201,11 @@
       <c r="O558" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P558" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="559" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>2519</v>
       </c>
@@ -26730,8 +27229,11 @@
       <c r="O559" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P559" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="560" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>2520</v>
       </c>
@@ -26755,8 +27257,11 @@
       <c r="O560" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="561" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P560" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="561" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>2521</v>
       </c>
@@ -26780,8 +27285,11 @@
       <c r="O561" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="562" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P561" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="562" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>2522</v>
       </c>
@@ -26805,8 +27313,11 @@
       <c r="O562" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="563" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P562" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="563" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>2523</v>
       </c>
@@ -26830,8 +27341,11 @@
       <c r="O563" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="564" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P563" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="564" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>2524</v>
       </c>
@@ -26855,8 +27369,11 @@
       <c r="O564" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="565" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P564" s="2" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="565" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>2525</v>
       </c>
@@ -26880,8 +27397,11 @@
       <c r="O565" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="566" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P565" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="566" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>2526</v>
       </c>
@@ -26905,8 +27425,11 @@
       <c r="O566" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="567" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P566" s="2" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="567" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>2527</v>
       </c>
@@ -26930,8 +27453,11 @@
       <c r="O567" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="568" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P567" s="2" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="568" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>2528</v>
       </c>
@@ -26955,8 +27481,11 @@
       <c r="O568" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="569" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P568" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="569" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>2529</v>
       </c>
@@ -26979,8 +27508,11 @@
       <c r="O569" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="570" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P569" s="2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="570" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>2530</v>
       </c>
@@ -27003,8 +27535,11 @@
       <c r="O570" s="2" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="571" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P570" s="2" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="571" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A571" s="2" t="s">
         <v>2540</v>
       </c>
@@ -27017,8 +27552,11 @@
       <c r="O571" s="2" t="s">
         <v>2541</v>
       </c>
-    </row>
-    <row r="573" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P571" s="2" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="573" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A573" s="2" t="s">
         <v>2543</v>
       </c>
@@ -27043,11 +27581,14 @@
       <c r="O573" s="20" t="s">
         <v>2545</v>
       </c>
-      <c r="R573" s="2" t="s">
+      <c r="P573" s="2" t="s">
+        <v>2797</v>
+      </c>
+      <c r="S573" s="2" t="s">
         <v>2544</v>
       </c>
     </row>
-    <row r="574" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B574" s="2">
         <v>2</v>
       </c>
@@ -27058,7 +27599,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="575" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B575" s="2">
         <v>3</v>
       </c>
@@ -27069,7 +27610,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="576" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B576" s="2">
         <v>4</v>
       </c>
@@ -27086,7 +27627,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="577" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B577" s="2">
         <v>5</v>
       </c>
@@ -27103,7 +27644,7 @@
         <v>144.9999</v>
       </c>
     </row>
-    <row r="578" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B578" s="2">
         <v>6</v>
       </c>
@@ -27120,7 +27661,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="579" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B579" s="2">
         <v>7</v>
       </c>
@@ -27131,7 +27672,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="580" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B580" s="2">
         <v>8</v>
       </c>
@@ -27142,7 +27683,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="581" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B581" s="2">
         <v>9</v>
       </c>
@@ -27159,7 +27700,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="582" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B582" s="2">
         <v>10</v>
       </c>
@@ -27170,7 +27711,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="583" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B583" s="2">
         <v>11</v>
       </c>
@@ -27181,7 +27722,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="584" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B584" s="2">
         <v>12</v>
       </c>
@@ -27192,7 +27733,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="585" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B585" s="2">
         <v>13</v>
       </c>
@@ -27203,7 +27744,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="586" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B586" s="2">
         <v>14</v>
       </c>
@@ -27214,7 +27755,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="588" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A588" s="2" t="s">
         <v>2636</v>
       </c>
@@ -27257,14 +27798,17 @@
       <c r="O588" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="Q588" s="2" t="s">
+      <c r="P588" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="R588" s="2" t="s">
         <v>2618</v>
       </c>
-      <c r="R588" s="2" t="s">
+      <c r="S588" s="2" t="s">
         <v>2619</v>
       </c>
     </row>
-    <row r="589" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B589" s="2">
         <v>2</v>
       </c>
@@ -27293,7 +27837,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="590" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B590" s="2">
         <v>3</v>
       </c>
@@ -27319,7 +27863,7 @@
         <v>35.679000000000002</v>
       </c>
     </row>
-    <row r="591" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B591" s="2">
         <v>4</v>
       </c>
@@ -27330,7 +27874,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="592" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B592" s="2">
         <v>5</v>
       </c>
@@ -27341,7 +27885,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="593" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B593" s="2">
         <v>6</v>
       </c>
@@ -27352,7 +27896,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="594" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B594" s="2">
         <v>7</v>
       </c>
@@ -27363,7 +27907,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="596" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A596" s="2" t="s">
         <v>2651</v>
       </c>
@@ -27400,14 +27944,17 @@
       <c r="O596" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="Q596" s="2" t="s">
+      <c r="P596" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="R596" s="2" t="s">
         <v>2658</v>
       </c>
-      <c r="R596" s="2" t="s">
+      <c r="S596" s="2" t="s">
         <v>2659</v>
       </c>
     </row>
-    <row r="597" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B597" s="2">
         <v>2</v>
       </c>
@@ -27433,7 +27980,7 @@
         <v>57.515000000000001</v>
       </c>
     </row>
-    <row r="598" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B598" s="2">
         <v>3</v>
       </c>
@@ -27459,7 +28006,7 @@
         <v>40.442</v>
       </c>
     </row>
-    <row r="599" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B599" s="2">
         <v>4</v>
       </c>
@@ -27485,7 +28032,7 @@
         <v>34.433999999999997</v>
       </c>
     </row>
-    <row r="600" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B600" s="2">
         <v>5</v>
       </c>
@@ -27496,7 +28043,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="601" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B601" s="2">
         <v>6</v>
       </c>
@@ -27522,7 +28069,7 @@
         <v>40.442</v>
       </c>
     </row>
-    <row r="602" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B602" s="2" t="s">
         <v>586</v>
       </c>
@@ -27538,11 +28085,11 @@
       <c r="I602" s="2">
         <v>174.75299999999999</v>
       </c>
-      <c r="P602" s="2" t="s">
+      <c r="Q602" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="603" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B603" t="s">
         <v>2685</v>
       </c>
@@ -27555,11 +28102,11 @@
       <c r="H603" s="2" t="s">
         <v>2687</v>
       </c>
-      <c r="P603" s="2" t="s">
+      <c r="Q603" s="2" t="s">
         <v>2688</v>
       </c>
     </row>
-    <row r="604" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B604" s="8">
         <v>7</v>
       </c>
@@ -27590,11 +28137,11 @@
       <c r="K604" s="8"/>
       <c r="L604" s="9"/>
       <c r="M604" s="8"/>
-      <c r="R604" s="2" t="s">
+      <c r="S604" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="605" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B605" s="2">
         <v>8</v>
       </c>
@@ -27605,7 +28152,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="606" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B606" s="2">
         <v>9</v>
       </c>
@@ -27616,7 +28163,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="607" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B607" s="2">
         <v>10</v>
       </c>
@@ -27627,7 +28174,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="608" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B608" s="2">
         <v>11</v>
       </c>
@@ -27638,7 +28185,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="609" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B609" s="2">
         <v>12</v>
       </c>
@@ -27649,7 +28196,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="610" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B610" s="2">
         <v>13</v>
       </c>
@@ -27660,7 +28207,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="611" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B611" s="2">
         <v>14</v>
       </c>
@@ -27671,7 +28218,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="613" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A613" s="2" t="s">
         <v>2710</v>
       </c>
@@ -27712,14 +28259,17 @@
       <c r="O613" s="2" t="s">
         <v>2717</v>
       </c>
-      <c r="Q613" s="2" t="s">
+      <c r="P613" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="R613" s="2" t="s">
         <v>2718</v>
       </c>
-      <c r="R613" s="2" t="s">
+      <c r="S613" s="2" t="s">
         <v>2719</v>
       </c>
     </row>
-    <row r="614" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B614" s="8">
         <v>2</v>
       </c>
@@ -27751,7 +28301,7 @@
       <c r="L614" s="9"/>
       <c r="M614" s="8"/>
     </row>
-    <row r="615" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B615" s="8">
         <v>3</v>
       </c>
@@ -27783,7 +28333,7 @@
       <c r="L615" s="9"/>
       <c r="M615" s="8"/>
     </row>
-    <row r="616" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B616" s="8">
         <v>4</v>
       </c>
@@ -27815,7 +28365,7 @@
       <c r="L616" s="9"/>
       <c r="M616" s="8"/>
     </row>
-    <row r="617" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B617" s="8">
         <v>5</v>
       </c>
@@ -27847,7 +28397,7 @@
       <c r="L617" s="9"/>
       <c r="M617" s="8"/>
     </row>
-    <row r="618" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B618" s="8">
         <v>6</v>
       </c>
@@ -27870,7 +28420,7 @@
       <c r="L618" s="9"/>
       <c r="M618" s="8"/>
     </row>
-    <row r="619" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B619" s="8">
         <v>7</v>
       </c>
@@ -27887,7 +28437,7 @@
       <c r="L619" s="9"/>
       <c r="M619" s="8"/>
     </row>
-    <row r="620" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B620" s="8">
         <v>8</v>
       </c>
@@ -27904,7 +28454,7 @@
       <c r="L620" s="9"/>
       <c r="M620" s="8"/>
     </row>
-    <row r="621" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B621" s="8">
         <v>9</v>
       </c>
@@ -27924,7 +28474,7 @@
       <c r="L621" s="9"/>
       <c r="M621" s="8"/>
     </row>
-    <row r="622" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B622" s="8">
         <v>10</v>
       </c>
@@ -27941,7 +28491,7 @@
       <c r="L622" s="9"/>
       <c r="M622" s="8"/>
     </row>
-    <row r="623" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B623" s="8">
         <v>11</v>
       </c>
@@ -27960,7 +28510,7 @@
       <c r="L623" s="9"/>
       <c r="M623" s="8"/>
     </row>
-    <row r="624" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B624" s="8">
         <v>12</v>
       </c>
@@ -27969,6 +28519,197 @@
       </c>
       <c r="D624" s="2" t="s">
         <v>2750</v>
+      </c>
+    </row>
+    <row r="626" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A626" s="2" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B626" s="2">
+        <v>1</v>
+      </c>
+      <c r="C626" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D626" s="2" t="s">
+        <v>2767</v>
+      </c>
+      <c r="E626" s="2" t="s">
+        <v>2768</v>
+      </c>
+      <c r="F626" s="2" t="s">
+        <v>2769</v>
+      </c>
+      <c r="G626" s="2" t="s">
+        <v>2770</v>
+      </c>
+      <c r="H626" s="2" t="s">
+        <v>2771</v>
+      </c>
+      <c r="I626" s="2">
+        <v>56.212000000000003</v>
+      </c>
+      <c r="L626" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="N626" s="2" t="s">
+        <v>2772</v>
+      </c>
+      <c r="O626" s="2" t="s">
+        <v>2773</v>
+      </c>
+      <c r="P626" s="2" t="s">
+        <v>2798</v>
+      </c>
+      <c r="S626" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="T626" s="2" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="627" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B627" s="8">
+        <v>2</v>
+      </c>
+      <c r="C627" s="2" t="s">
+        <v>2776</v>
+      </c>
+      <c r="D627" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="E627" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="F627" s="2" t="s">
+        <v>2779</v>
+      </c>
+      <c r="G627" s="2" t="s">
+        <v>2780</v>
+      </c>
+      <c r="H627" s="2">
+        <v>3.0171E-2</v>
+      </c>
+      <c r="I627" s="2">
+        <v>30.170999999999999</v>
+      </c>
+      <c r="J627" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="K627" s="14" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="628" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B628" s="8">
+        <v>3</v>
+      </c>
+      <c r="C628" s="2" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D628" s="2" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="629" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B629" s="8">
+        <v>4</v>
+      </c>
+      <c r="C629" s="2" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D629" s="2" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="630" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B630" s="8">
+        <v>5</v>
+      </c>
+      <c r="C630" s="2" t="s">
+        <v>2785</v>
+      </c>
+      <c r="D630" s="2" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="631" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B631" s="8">
+        <v>6</v>
+      </c>
+      <c r="C631" s="2" t="s">
+        <v>2787</v>
+      </c>
+      <c r="D631" s="2" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="632" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B632" s="8">
+        <v>7</v>
+      </c>
+      <c r="C632" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D632" s="2" t="s">
+        <v>2789</v>
+      </c>
+      <c r="E632" s="2" t="s">
+        <v>2790</v>
+      </c>
+      <c r="F632" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="G632" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H632" s="2">
+        <v>8.280979166666666E-2</v>
+      </c>
+      <c r="I632" s="2">
+        <v>39.748699999999999</v>
+      </c>
+      <c r="J632" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="K632" s="8"/>
+      <c r="L632" s="9"/>
+      <c r="M632" s="8"/>
+      <c r="T632" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="633" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B633" s="8">
+        <v>8</v>
+      </c>
+      <c r="C633" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D633" s="2" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="634" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B634" s="8">
+        <v>9</v>
+      </c>
+      <c r="C634" s="2" t="s">
+        <v>2792</v>
+      </c>
+      <c r="D634" s="2" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="635" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B635" s="8">
+        <v>10</v>
+      </c>
+      <c r="C635" s="2" t="s">
+        <v>2794</v>
+      </c>
+      <c r="D635" s="2" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -27984,10 +28725,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D178"/>
+  <dimension ref="A1:D182"/>
   <sheetViews>
-    <sheetView topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="D183" sqref="D183"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="B186" sqref="B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29422,6 +30163,38 @@
         <v>2760</v>
       </c>
     </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>2799</v>
+      </c>
+      <c r="B179" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B180" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>2803</v>
+      </c>
+      <c r="B181" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B182" t="s">
+        <v>2806</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29431,10 +30204,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:XFD102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30872,6 +31645,20 @@
         <v>2762</v>
       </c>
       <c r="E101" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2764</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="E102" t="s">
         <v>2548</v>
       </c>
     </row>
